--- a/InputData/fuels/BS/BAU Subsidies.xlsx
+++ b/InputData/fuels/BS/BAU Subsidies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us-analysis\InputData\fuels\BS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\California\Models\eps-california\InputData\fuels\BS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E55888-E5E6-40B8-909F-5C6D414C614C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85FCB87-FDE3-457B-BADA-0658F8B03791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -2298,7 +2298,7 @@
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2446,6 +2446,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2848,7 +2849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
@@ -8860,7 +8861,7 @@
   <dimension ref="A1:AH17"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9474,127 +9475,127 @@
       </c>
       <c r="B7" s="26">
         <f>Calculations!C7</f>
-        <v>248462.12999999998</v>
+        <v>185631.53999999998</v>
       </c>
       <c r="C7" s="26">
         <f>Calculations!D7</f>
-        <v>233752.94999999998</v>
+        <v>174840.45299999998</v>
       </c>
       <c r="D7" s="26">
         <f>Calculations!E7</f>
-        <v>191193.21</v>
+        <v>143643.9264</v>
       </c>
       <c r="E7" s="26">
         <f>Calculations!F7</f>
-        <v>180589.65599999999</v>
+        <v>135779.66740000001</v>
       </c>
       <c r="F7" s="26">
         <f>Calculations!G7</f>
-        <v>171481.609</v>
+        <v>128506.64319999999</v>
       </c>
       <c r="G7" s="26">
         <f>Calculations!H7</f>
-        <v>138474.63519999999</v>
+        <v>103141.67599999998</v>
       </c>
       <c r="H7" s="26">
         <f>Calculations!I7</f>
-        <v>58742.18299999999</v>
+        <v>44507.094999999994</v>
       </c>
       <c r="I7" s="26">
         <f>Calculations!J7</f>
-        <v>55449.869999999995</v>
+        <v>42386.745999999992</v>
       </c>
       <c r="J7" s="26">
         <f>Calculations!K7</f>
-        <v>52294.303999999989</v>
+        <v>40383.110999999997</v>
       </c>
       <c r="K7" s="26">
         <f>Calculations!L7</f>
-        <v>49491.425999999992</v>
+        <v>38442.991999999991</v>
       </c>
       <c r="L7" s="26">
         <f>Calculations!M7</f>
-        <v>46751.125999999997</v>
+        <v>36513.056999999993</v>
       </c>
       <c r="M7" s="26">
         <f>Calculations!N7</f>
-        <v>45740.229999999996</v>
+        <v>35687.214999999997</v>
       </c>
       <c r="N7" s="26">
         <f>Calculations!O7</f>
-        <v>44786.685999999994</v>
+        <v>34946.797999999995</v>
       </c>
       <c r="O7" s="26">
         <f>Calculations!P7</f>
-        <v>43962.518999999993</v>
+        <v>34239.277999999998</v>
       </c>
       <c r="P7" s="26">
         <f>Calculations!Q7</f>
-        <v>43192.48799999999</v>
+        <v>33567.267999999996</v>
       </c>
       <c r="Q7" s="26">
         <f>Calculations!R7</f>
-        <v>42490.260999999991</v>
+        <v>32927.216999999997</v>
       </c>
       <c r="R7" s="26">
         <f>Calculations!S7</f>
-        <v>41871.917999999991</v>
+        <v>32345.053999999996</v>
       </c>
       <c r="S7" s="26">
         <f>Calculations!T7</f>
-        <v>41360.841999999997</v>
+        <v>31907.007999999994</v>
       </c>
       <c r="T7" s="26">
         <f>Calculations!U7</f>
-        <v>40877.436999999991</v>
+        <v>31497.503999999994</v>
       </c>
       <c r="U7" s="26">
         <f>Calculations!V7</f>
-        <v>40429.072999999997</v>
+        <v>31119.958999999995</v>
       </c>
       <c r="V7" s="26">
         <f>Calculations!W7</f>
-        <v>40021.377999999997</v>
+        <v>30776.114999999994</v>
       </c>
       <c r="W7" s="26">
         <f>Calculations!X7</f>
-        <v>39645.239999999991</v>
+        <v>30466.440999999995</v>
       </c>
       <c r="X7" s="26">
         <f>Calculations!Y7</f>
-        <v>39288.062999999995</v>
+        <v>30176.665999999994</v>
       </c>
       <c r="Y7" s="26">
         <f>Calculations!Z7</f>
-        <v>38942.208999999995</v>
+        <v>29908.933999999994</v>
       </c>
       <c r="Z7" s="26">
         <f>Calculations!AA7</f>
-        <v>38592.133999999991</v>
+        <v>29636.176999999996</v>
       </c>
       <c r="AA7" s="26">
         <f>Calculations!AB7</f>
-        <v>38234.688999999991</v>
+        <v>29388.008999999995</v>
       </c>
       <c r="AB7" s="26">
         <f>Calculations!AC7</f>
-        <v>37916.974999999991</v>
+        <v>29159.940999999995</v>
       </c>
       <c r="AC7" s="26">
         <f>Calculations!AD7</f>
-        <v>37619.628999999994</v>
+        <v>28929.326999999997</v>
       </c>
       <c r="AD7" s="26">
         <f>Calculations!AE7</f>
-        <v>37333.337999999996</v>
+        <v>28696.568999999996</v>
       </c>
       <c r="AE7" s="26">
         <f>Calculations!AF7</f>
-        <v>37047.515999999996</v>
+        <v>28464.480999999996</v>
       </c>
       <c r="AF7" s="26">
         <f>Calculations!AG7</f>
-        <v>36783.267999999996</v>
+        <v>28243.648999999998</v>
       </c>
       <c r="AG7" s="26"/>
       <c r="AH7" s="26"/>
@@ -10271,35 +10272,35 @@
       </c>
       <c r="C14" s="26">
         <f>Calculations!D14</f>
-        <v>794898.72</v>
+        <v>631937.97</v>
       </c>
       <c r="D14" s="26">
         <f>Calculations!E14</f>
-        <v>751452.57</v>
+        <v>611709.32999999996</v>
       </c>
       <c r="E14" s="26">
         <f>Calculations!F14</f>
-        <v>709753.11</v>
+        <v>593203.26</v>
       </c>
       <c r="F14" s="26">
         <f>Calculations!G14</f>
-        <v>654962.5199999999</v>
+        <v>569159.6399999999</v>
       </c>
       <c r="G14" s="26">
         <f>Calculations!H14</f>
-        <v>617942.34</v>
+        <v>548454.63</v>
       </c>
       <c r="H14" s="26">
         <f>Calculations!I14</f>
-        <v>594676.59</v>
+        <v>525930.56999999995</v>
       </c>
       <c r="I14" s="26">
         <f>Calculations!J14</f>
-        <v>573509.27999999991</v>
+        <v>508138.05</v>
       </c>
       <c r="J14" s="26">
         <f>Calculations!K14</f>
-        <v>554056.5</v>
+        <v>492769.58999999997</v>
       </c>
       <c r="K14" s="26">
         <f>Calculations!L14*'Monetizing Tax Credit Penalty'!$A$30</f>
@@ -18105,39 +18106,39 @@
     <row r="110" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="111" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="112" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="78"/>
-      <c r="C112" s="78"/>
-      <c r="D112" s="78"/>
-      <c r="E112" s="78"/>
-      <c r="F112" s="78"/>
-      <c r="G112" s="78"/>
-      <c r="H112" s="78"/>
-      <c r="I112" s="78"/>
-      <c r="J112" s="78"/>
-      <c r="K112" s="78"/>
-      <c r="L112" s="78"/>
-      <c r="M112" s="78"/>
-      <c r="N112" s="78"/>
-      <c r="O112" s="78"/>
-      <c r="P112" s="78"/>
-      <c r="Q112" s="78"/>
-      <c r="R112" s="78"/>
-      <c r="S112" s="78"/>
-      <c r="T112" s="78"/>
-      <c r="U112" s="78"/>
-      <c r="V112" s="78"/>
-      <c r="W112" s="78"/>
-      <c r="X112" s="78"/>
-      <c r="Y112" s="78"/>
-      <c r="Z112" s="78"/>
-      <c r="AA112" s="78"/>
-      <c r="AB112" s="78"/>
-      <c r="AC112" s="78"/>
-      <c r="AD112" s="78"/>
-      <c r="AE112" s="78"/>
-      <c r="AF112" s="78"/>
-      <c r="AG112" s="78"/>
-      <c r="AH112" s="78"/>
+      <c r="B112" s="81"/>
+      <c r="C112" s="81"/>
+      <c r="D112" s="81"/>
+      <c r="E112" s="81"/>
+      <c r="F112" s="81"/>
+      <c r="G112" s="81"/>
+      <c r="H112" s="81"/>
+      <c r="I112" s="81"/>
+      <c r="J112" s="81"/>
+      <c r="K112" s="81"/>
+      <c r="L112" s="81"/>
+      <c r="M112" s="81"/>
+      <c r="N112" s="81"/>
+      <c r="O112" s="81"/>
+      <c r="P112" s="81"/>
+      <c r="Q112" s="81"/>
+      <c r="R112" s="81"/>
+      <c r="S112" s="81"/>
+      <c r="T112" s="81"/>
+      <c r="U112" s="81"/>
+      <c r="V112" s="81"/>
+      <c r="W112" s="81"/>
+      <c r="X112" s="81"/>
+      <c r="Y112" s="81"/>
+      <c r="Z112" s="81"/>
+      <c r="AA112" s="81"/>
+      <c r="AB112" s="81"/>
+      <c r="AC112" s="81"/>
+      <c r="AD112" s="81"/>
+      <c r="AE112" s="81"/>
+      <c r="AF112" s="81"/>
+      <c r="AG112" s="81"/>
+      <c r="AH112" s="81"/>
     </row>
     <row r="113" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="114" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18316,39 +18317,39 @@
     <row r="306" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="307" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="308" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B308" s="78"/>
-      <c r="C308" s="78"/>
-      <c r="D308" s="78"/>
-      <c r="E308" s="78"/>
-      <c r="F308" s="78"/>
-      <c r="G308" s="78"/>
-      <c r="H308" s="78"/>
-      <c r="I308" s="78"/>
-      <c r="J308" s="78"/>
-      <c r="K308" s="78"/>
-      <c r="L308" s="78"/>
-      <c r="M308" s="78"/>
-      <c r="N308" s="78"/>
-      <c r="O308" s="78"/>
-      <c r="P308" s="78"/>
-      <c r="Q308" s="78"/>
-      <c r="R308" s="78"/>
-      <c r="S308" s="78"/>
-      <c r="T308" s="78"/>
-      <c r="U308" s="78"/>
-      <c r="V308" s="78"/>
-      <c r="W308" s="78"/>
-      <c r="X308" s="78"/>
-      <c r="Y308" s="78"/>
-      <c r="Z308" s="78"/>
-      <c r="AA308" s="78"/>
-      <c r="AB308" s="78"/>
-      <c r="AC308" s="78"/>
-      <c r="AD308" s="78"/>
-      <c r="AE308" s="78"/>
-      <c r="AF308" s="78"/>
-      <c r="AG308" s="78"/>
-      <c r="AH308" s="78"/>
+      <c r="B308" s="81"/>
+      <c r="C308" s="81"/>
+      <c r="D308" s="81"/>
+      <c r="E308" s="81"/>
+      <c r="F308" s="81"/>
+      <c r="G308" s="81"/>
+      <c r="H308" s="81"/>
+      <c r="I308" s="81"/>
+      <c r="J308" s="81"/>
+      <c r="K308" s="81"/>
+      <c r="L308" s="81"/>
+      <c r="M308" s="81"/>
+      <c r="N308" s="81"/>
+      <c r="O308" s="81"/>
+      <c r="P308" s="81"/>
+      <c r="Q308" s="81"/>
+      <c r="R308" s="81"/>
+      <c r="S308" s="81"/>
+      <c r="T308" s="81"/>
+      <c r="U308" s="81"/>
+      <c r="V308" s="81"/>
+      <c r="W308" s="81"/>
+      <c r="X308" s="81"/>
+      <c r="Y308" s="81"/>
+      <c r="Z308" s="81"/>
+      <c r="AA308" s="81"/>
+      <c r="AB308" s="81"/>
+      <c r="AC308" s="81"/>
+      <c r="AD308" s="81"/>
+      <c r="AE308" s="81"/>
+      <c r="AF308" s="81"/>
+      <c r="AG308" s="81"/>
+      <c r="AH308" s="81"/>
     </row>
     <row r="309" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="310" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18507,39 +18508,39 @@
     <row r="508" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="510" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="511" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B511" s="78"/>
-      <c r="C511" s="78"/>
-      <c r="D511" s="78"/>
-      <c r="E511" s="78"/>
-      <c r="F511" s="78"/>
-      <c r="G511" s="78"/>
-      <c r="H511" s="78"/>
-      <c r="I511" s="78"/>
-      <c r="J511" s="78"/>
-      <c r="K511" s="78"/>
-      <c r="L511" s="78"/>
-      <c r="M511" s="78"/>
-      <c r="N511" s="78"/>
-      <c r="O511" s="78"/>
-      <c r="P511" s="78"/>
-      <c r="Q511" s="78"/>
-      <c r="R511" s="78"/>
-      <c r="S511" s="78"/>
-      <c r="T511" s="78"/>
-      <c r="U511" s="78"/>
-      <c r="V511" s="78"/>
-      <c r="W511" s="78"/>
-      <c r="X511" s="78"/>
-      <c r="Y511" s="78"/>
-      <c r="Z511" s="78"/>
-      <c r="AA511" s="78"/>
-      <c r="AB511" s="78"/>
-      <c r="AC511" s="78"/>
-      <c r="AD511" s="78"/>
-      <c r="AE511" s="78"/>
-      <c r="AF511" s="78"/>
-      <c r="AG511" s="78"/>
-      <c r="AH511" s="78"/>
+      <c r="B511" s="81"/>
+      <c r="C511" s="81"/>
+      <c r="D511" s="81"/>
+      <c r="E511" s="81"/>
+      <c r="F511" s="81"/>
+      <c r="G511" s="81"/>
+      <c r="H511" s="81"/>
+      <c r="I511" s="81"/>
+      <c r="J511" s="81"/>
+      <c r="K511" s="81"/>
+      <c r="L511" s="81"/>
+      <c r="M511" s="81"/>
+      <c r="N511" s="81"/>
+      <c r="O511" s="81"/>
+      <c r="P511" s="81"/>
+      <c r="Q511" s="81"/>
+      <c r="R511" s="81"/>
+      <c r="S511" s="81"/>
+      <c r="T511" s="81"/>
+      <c r="U511" s="81"/>
+      <c r="V511" s="81"/>
+      <c r="W511" s="81"/>
+      <c r="X511" s="81"/>
+      <c r="Y511" s="81"/>
+      <c r="Z511" s="81"/>
+      <c r="AA511" s="81"/>
+      <c r="AB511" s="81"/>
+      <c r="AC511" s="81"/>
+      <c r="AD511" s="81"/>
+      <c r="AE511" s="81"/>
+      <c r="AF511" s="81"/>
+      <c r="AG511" s="81"/>
+      <c r="AH511" s="81"/>
     </row>
     <row r="512" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="513" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18680,39 +18681,39 @@
     <row r="710" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="711" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="712" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B712" s="78"/>
-      <c r="C712" s="78"/>
-      <c r="D712" s="78"/>
-      <c r="E712" s="78"/>
-      <c r="F712" s="78"/>
-      <c r="G712" s="78"/>
-      <c r="H712" s="78"/>
-      <c r="I712" s="78"/>
-      <c r="J712" s="78"/>
-      <c r="K712" s="78"/>
-      <c r="L712" s="78"/>
-      <c r="M712" s="78"/>
-      <c r="N712" s="78"/>
-      <c r="O712" s="78"/>
-      <c r="P712" s="78"/>
-      <c r="Q712" s="78"/>
-      <c r="R712" s="78"/>
-      <c r="S712" s="78"/>
-      <c r="T712" s="78"/>
-      <c r="U712" s="78"/>
-      <c r="V712" s="78"/>
-      <c r="W712" s="78"/>
-      <c r="X712" s="78"/>
-      <c r="Y712" s="78"/>
-      <c r="Z712" s="78"/>
-      <c r="AA712" s="78"/>
-      <c r="AB712" s="78"/>
-      <c r="AC712" s="78"/>
-      <c r="AD712" s="78"/>
-      <c r="AE712" s="78"/>
-      <c r="AF712" s="78"/>
-      <c r="AG712" s="78"/>
-      <c r="AH712" s="78"/>
+      <c r="B712" s="81"/>
+      <c r="C712" s="81"/>
+      <c r="D712" s="81"/>
+      <c r="E712" s="81"/>
+      <c r="F712" s="81"/>
+      <c r="G712" s="81"/>
+      <c r="H712" s="81"/>
+      <c r="I712" s="81"/>
+      <c r="J712" s="81"/>
+      <c r="K712" s="81"/>
+      <c r="L712" s="81"/>
+      <c r="M712" s="81"/>
+      <c r="N712" s="81"/>
+      <c r="O712" s="81"/>
+      <c r="P712" s="81"/>
+      <c r="Q712" s="81"/>
+      <c r="R712" s="81"/>
+      <c r="S712" s="81"/>
+      <c r="T712" s="81"/>
+      <c r="U712" s="81"/>
+      <c r="V712" s="81"/>
+      <c r="W712" s="81"/>
+      <c r="X712" s="81"/>
+      <c r="Y712" s="81"/>
+      <c r="Z712" s="81"/>
+      <c r="AA712" s="81"/>
+      <c r="AB712" s="81"/>
+      <c r="AC712" s="81"/>
+      <c r="AD712" s="81"/>
+      <c r="AE712" s="81"/>
+      <c r="AF712" s="81"/>
+      <c r="AG712" s="81"/>
+      <c r="AH712" s="81"/>
     </row>
     <row r="713" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="714" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18835,39 +18836,39 @@
     <row r="885" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="886" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="887" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B887" s="78"/>
-      <c r="C887" s="78"/>
-      <c r="D887" s="78"/>
-      <c r="E887" s="78"/>
-      <c r="F887" s="78"/>
-      <c r="G887" s="78"/>
-      <c r="H887" s="78"/>
-      <c r="I887" s="78"/>
-      <c r="J887" s="78"/>
-      <c r="K887" s="78"/>
-      <c r="L887" s="78"/>
-      <c r="M887" s="78"/>
-      <c r="N887" s="78"/>
-      <c r="O887" s="78"/>
-      <c r="P887" s="78"/>
-      <c r="Q887" s="78"/>
-      <c r="R887" s="78"/>
-      <c r="S887" s="78"/>
-      <c r="T887" s="78"/>
-      <c r="U887" s="78"/>
-      <c r="V887" s="78"/>
-      <c r="W887" s="78"/>
-      <c r="X887" s="78"/>
-      <c r="Y887" s="78"/>
-      <c r="Z887" s="78"/>
-      <c r="AA887" s="78"/>
-      <c r="AB887" s="78"/>
-      <c r="AC887" s="78"/>
-      <c r="AD887" s="78"/>
-      <c r="AE887" s="78"/>
-      <c r="AF887" s="78"/>
-      <c r="AG887" s="78"/>
-      <c r="AH887" s="78"/>
+      <c r="B887" s="81"/>
+      <c r="C887" s="81"/>
+      <c r="D887" s="81"/>
+      <c r="E887" s="81"/>
+      <c r="F887" s="81"/>
+      <c r="G887" s="81"/>
+      <c r="H887" s="81"/>
+      <c r="I887" s="81"/>
+      <c r="J887" s="81"/>
+      <c r="K887" s="81"/>
+      <c r="L887" s="81"/>
+      <c r="M887" s="81"/>
+      <c r="N887" s="81"/>
+      <c r="O887" s="81"/>
+      <c r="P887" s="81"/>
+      <c r="Q887" s="81"/>
+      <c r="R887" s="81"/>
+      <c r="S887" s="81"/>
+      <c r="T887" s="81"/>
+      <c r="U887" s="81"/>
+      <c r="V887" s="81"/>
+      <c r="W887" s="81"/>
+      <c r="X887" s="81"/>
+      <c r="Y887" s="81"/>
+      <c r="Z887" s="81"/>
+      <c r="AA887" s="81"/>
+      <c r="AB887" s="81"/>
+      <c r="AC887" s="81"/>
+      <c r="AD887" s="81"/>
+      <c r="AE887" s="81"/>
+      <c r="AF887" s="81"/>
+      <c r="AG887" s="81"/>
+      <c r="AH887" s="81"/>
     </row>
     <row r="888" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="889" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19030,39 +19031,39 @@
     <row r="1098" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1099" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1100" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1100" s="78"/>
-      <c r="C1100" s="78"/>
-      <c r="D1100" s="78"/>
-      <c r="E1100" s="78"/>
-      <c r="F1100" s="78"/>
-      <c r="G1100" s="78"/>
-      <c r="H1100" s="78"/>
-      <c r="I1100" s="78"/>
-      <c r="J1100" s="78"/>
-      <c r="K1100" s="78"/>
-      <c r="L1100" s="78"/>
-      <c r="M1100" s="78"/>
-      <c r="N1100" s="78"/>
-      <c r="O1100" s="78"/>
-      <c r="P1100" s="78"/>
-      <c r="Q1100" s="78"/>
-      <c r="R1100" s="78"/>
-      <c r="S1100" s="78"/>
-      <c r="T1100" s="78"/>
-      <c r="U1100" s="78"/>
-      <c r="V1100" s="78"/>
-      <c r="W1100" s="78"/>
-      <c r="X1100" s="78"/>
-      <c r="Y1100" s="78"/>
-      <c r="Z1100" s="78"/>
-      <c r="AA1100" s="78"/>
-      <c r="AB1100" s="78"/>
-      <c r="AC1100" s="78"/>
-      <c r="AD1100" s="78"/>
-      <c r="AE1100" s="78"/>
-      <c r="AF1100" s="78"/>
-      <c r="AG1100" s="78"/>
-      <c r="AH1100" s="78"/>
+      <c r="B1100" s="81"/>
+      <c r="C1100" s="81"/>
+      <c r="D1100" s="81"/>
+      <c r="E1100" s="81"/>
+      <c r="F1100" s="81"/>
+      <c r="G1100" s="81"/>
+      <c r="H1100" s="81"/>
+      <c r="I1100" s="81"/>
+      <c r="J1100" s="81"/>
+      <c r="K1100" s="81"/>
+      <c r="L1100" s="81"/>
+      <c r="M1100" s="81"/>
+      <c r="N1100" s="81"/>
+      <c r="O1100" s="81"/>
+      <c r="P1100" s="81"/>
+      <c r="Q1100" s="81"/>
+      <c r="R1100" s="81"/>
+      <c r="S1100" s="81"/>
+      <c r="T1100" s="81"/>
+      <c r="U1100" s="81"/>
+      <c r="V1100" s="81"/>
+      <c r="W1100" s="81"/>
+      <c r="X1100" s="81"/>
+      <c r="Y1100" s="81"/>
+      <c r="Z1100" s="81"/>
+      <c r="AA1100" s="81"/>
+      <c r="AB1100" s="81"/>
+      <c r="AC1100" s="81"/>
+      <c r="AD1100" s="81"/>
+      <c r="AE1100" s="81"/>
+      <c r="AF1100" s="81"/>
+      <c r="AG1100" s="81"/>
+      <c r="AH1100" s="81"/>
     </row>
     <row r="1101" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1102" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19150,39 +19151,39 @@
     <row r="1225" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1226" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1227" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1227" s="78"/>
-      <c r="C1227" s="78"/>
-      <c r="D1227" s="78"/>
-      <c r="E1227" s="78"/>
-      <c r="F1227" s="78"/>
-      <c r="G1227" s="78"/>
-      <c r="H1227" s="78"/>
-      <c r="I1227" s="78"/>
-      <c r="J1227" s="78"/>
-      <c r="K1227" s="78"/>
-      <c r="L1227" s="78"/>
-      <c r="M1227" s="78"/>
-      <c r="N1227" s="78"/>
-      <c r="O1227" s="78"/>
-      <c r="P1227" s="78"/>
-      <c r="Q1227" s="78"/>
-      <c r="R1227" s="78"/>
-      <c r="S1227" s="78"/>
-      <c r="T1227" s="78"/>
-      <c r="U1227" s="78"/>
-      <c r="V1227" s="78"/>
-      <c r="W1227" s="78"/>
-      <c r="X1227" s="78"/>
-      <c r="Y1227" s="78"/>
-      <c r="Z1227" s="78"/>
-      <c r="AA1227" s="78"/>
-      <c r="AB1227" s="78"/>
-      <c r="AC1227" s="78"/>
-      <c r="AD1227" s="78"/>
-      <c r="AE1227" s="78"/>
-      <c r="AF1227" s="78"/>
-      <c r="AG1227" s="78"/>
-      <c r="AH1227" s="78"/>
+      <c r="B1227" s="81"/>
+      <c r="C1227" s="81"/>
+      <c r="D1227" s="81"/>
+      <c r="E1227" s="81"/>
+      <c r="F1227" s="81"/>
+      <c r="G1227" s="81"/>
+      <c r="H1227" s="81"/>
+      <c r="I1227" s="81"/>
+      <c r="J1227" s="81"/>
+      <c r="K1227" s="81"/>
+      <c r="L1227" s="81"/>
+      <c r="M1227" s="81"/>
+      <c r="N1227" s="81"/>
+      <c r="O1227" s="81"/>
+      <c r="P1227" s="81"/>
+      <c r="Q1227" s="81"/>
+      <c r="R1227" s="81"/>
+      <c r="S1227" s="81"/>
+      <c r="T1227" s="81"/>
+      <c r="U1227" s="81"/>
+      <c r="V1227" s="81"/>
+      <c r="W1227" s="81"/>
+      <c r="X1227" s="81"/>
+      <c r="Y1227" s="81"/>
+      <c r="Z1227" s="81"/>
+      <c r="AA1227" s="81"/>
+      <c r="AB1227" s="81"/>
+      <c r="AC1227" s="81"/>
+      <c r="AD1227" s="81"/>
+      <c r="AE1227" s="81"/>
+      <c r="AF1227" s="81"/>
+      <c r="AG1227" s="81"/>
+      <c r="AH1227" s="81"/>
     </row>
     <row r="1228" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1229" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19276,39 +19277,39 @@
     <row r="1388" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1389" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1390" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1390" s="78"/>
-      <c r="C1390" s="78"/>
-      <c r="D1390" s="78"/>
-      <c r="E1390" s="78"/>
-      <c r="F1390" s="78"/>
-      <c r="G1390" s="78"/>
-      <c r="H1390" s="78"/>
-      <c r="I1390" s="78"/>
-      <c r="J1390" s="78"/>
-      <c r="K1390" s="78"/>
-      <c r="L1390" s="78"/>
-      <c r="M1390" s="78"/>
-      <c r="N1390" s="78"/>
-      <c r="O1390" s="78"/>
-      <c r="P1390" s="78"/>
-      <c r="Q1390" s="78"/>
-      <c r="R1390" s="78"/>
-      <c r="S1390" s="78"/>
-      <c r="T1390" s="78"/>
-      <c r="U1390" s="78"/>
-      <c r="V1390" s="78"/>
-      <c r="W1390" s="78"/>
-      <c r="X1390" s="78"/>
-      <c r="Y1390" s="78"/>
-      <c r="Z1390" s="78"/>
-      <c r="AA1390" s="78"/>
-      <c r="AB1390" s="78"/>
-      <c r="AC1390" s="78"/>
-      <c r="AD1390" s="78"/>
-      <c r="AE1390" s="78"/>
-      <c r="AF1390" s="78"/>
-      <c r="AG1390" s="78"/>
-      <c r="AH1390" s="78"/>
+      <c r="B1390" s="81"/>
+      <c r="C1390" s="81"/>
+      <c r="D1390" s="81"/>
+      <c r="E1390" s="81"/>
+      <c r="F1390" s="81"/>
+      <c r="G1390" s="81"/>
+      <c r="H1390" s="81"/>
+      <c r="I1390" s="81"/>
+      <c r="J1390" s="81"/>
+      <c r="K1390" s="81"/>
+      <c r="L1390" s="81"/>
+      <c r="M1390" s="81"/>
+      <c r="N1390" s="81"/>
+      <c r="O1390" s="81"/>
+      <c r="P1390" s="81"/>
+      <c r="Q1390" s="81"/>
+      <c r="R1390" s="81"/>
+      <c r="S1390" s="81"/>
+      <c r="T1390" s="81"/>
+      <c r="U1390" s="81"/>
+      <c r="V1390" s="81"/>
+      <c r="W1390" s="81"/>
+      <c r="X1390" s="81"/>
+      <c r="Y1390" s="81"/>
+      <c r="Z1390" s="81"/>
+      <c r="AA1390" s="81"/>
+      <c r="AB1390" s="81"/>
+      <c r="AC1390" s="81"/>
+      <c r="AD1390" s="81"/>
+      <c r="AE1390" s="81"/>
+      <c r="AF1390" s="81"/>
+      <c r="AG1390" s="81"/>
+      <c r="AH1390" s="81"/>
     </row>
     <row r="1391" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1392" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19403,39 +19404,39 @@
     <row r="1500" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1501" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1502" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1502" s="78"/>
-      <c r="C1502" s="78"/>
-      <c r="D1502" s="78"/>
-      <c r="E1502" s="78"/>
-      <c r="F1502" s="78"/>
-      <c r="G1502" s="78"/>
-      <c r="H1502" s="78"/>
-      <c r="I1502" s="78"/>
-      <c r="J1502" s="78"/>
-      <c r="K1502" s="78"/>
-      <c r="L1502" s="78"/>
-      <c r="M1502" s="78"/>
-      <c r="N1502" s="78"/>
-      <c r="O1502" s="78"/>
-      <c r="P1502" s="78"/>
-      <c r="Q1502" s="78"/>
-      <c r="R1502" s="78"/>
-      <c r="S1502" s="78"/>
-      <c r="T1502" s="78"/>
-      <c r="U1502" s="78"/>
-      <c r="V1502" s="78"/>
-      <c r="W1502" s="78"/>
-      <c r="X1502" s="78"/>
-      <c r="Y1502" s="78"/>
-      <c r="Z1502" s="78"/>
-      <c r="AA1502" s="78"/>
-      <c r="AB1502" s="78"/>
-      <c r="AC1502" s="78"/>
-      <c r="AD1502" s="78"/>
-      <c r="AE1502" s="78"/>
-      <c r="AF1502" s="78"/>
-      <c r="AG1502" s="78"/>
-      <c r="AH1502" s="78"/>
+      <c r="B1502" s="81"/>
+      <c r="C1502" s="81"/>
+      <c r="D1502" s="81"/>
+      <c r="E1502" s="81"/>
+      <c r="F1502" s="81"/>
+      <c r="G1502" s="81"/>
+      <c r="H1502" s="81"/>
+      <c r="I1502" s="81"/>
+      <c r="J1502" s="81"/>
+      <c r="K1502" s="81"/>
+      <c r="L1502" s="81"/>
+      <c r="M1502" s="81"/>
+      <c r="N1502" s="81"/>
+      <c r="O1502" s="81"/>
+      <c r="P1502" s="81"/>
+      <c r="Q1502" s="81"/>
+      <c r="R1502" s="81"/>
+      <c r="S1502" s="81"/>
+      <c r="T1502" s="81"/>
+      <c r="U1502" s="81"/>
+      <c r="V1502" s="81"/>
+      <c r="W1502" s="81"/>
+      <c r="X1502" s="81"/>
+      <c r="Y1502" s="81"/>
+      <c r="Z1502" s="81"/>
+      <c r="AA1502" s="81"/>
+      <c r="AB1502" s="81"/>
+      <c r="AC1502" s="81"/>
+      <c r="AD1502" s="81"/>
+      <c r="AE1502" s="81"/>
+      <c r="AF1502" s="81"/>
+      <c r="AG1502" s="81"/>
+      <c r="AH1502" s="81"/>
     </row>
     <row r="1503" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1504" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19486,39 +19487,39 @@
     <row r="1602" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1603" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1604" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1604" s="78"/>
-      <c r="C1604" s="78"/>
-      <c r="D1604" s="78"/>
-      <c r="E1604" s="78"/>
-      <c r="F1604" s="78"/>
-      <c r="G1604" s="78"/>
-      <c r="H1604" s="78"/>
-      <c r="I1604" s="78"/>
-      <c r="J1604" s="78"/>
-      <c r="K1604" s="78"/>
-      <c r="L1604" s="78"/>
-      <c r="M1604" s="78"/>
-      <c r="N1604" s="78"/>
-      <c r="O1604" s="78"/>
-      <c r="P1604" s="78"/>
-      <c r="Q1604" s="78"/>
-      <c r="R1604" s="78"/>
-      <c r="S1604" s="78"/>
-      <c r="T1604" s="78"/>
-      <c r="U1604" s="78"/>
-      <c r="V1604" s="78"/>
-      <c r="W1604" s="78"/>
-      <c r="X1604" s="78"/>
-      <c r="Y1604" s="78"/>
-      <c r="Z1604" s="78"/>
-      <c r="AA1604" s="78"/>
-      <c r="AB1604" s="78"/>
-      <c r="AC1604" s="78"/>
-      <c r="AD1604" s="78"/>
-      <c r="AE1604" s="78"/>
-      <c r="AF1604" s="78"/>
-      <c r="AG1604" s="78"/>
-      <c r="AH1604" s="78"/>
+      <c r="B1604" s="81"/>
+      <c r="C1604" s="81"/>
+      <c r="D1604" s="81"/>
+      <c r="E1604" s="81"/>
+      <c r="F1604" s="81"/>
+      <c r="G1604" s="81"/>
+      <c r="H1604" s="81"/>
+      <c r="I1604" s="81"/>
+      <c r="J1604" s="81"/>
+      <c r="K1604" s="81"/>
+      <c r="L1604" s="81"/>
+      <c r="M1604" s="81"/>
+      <c r="N1604" s="81"/>
+      <c r="O1604" s="81"/>
+      <c r="P1604" s="81"/>
+      <c r="Q1604" s="81"/>
+      <c r="R1604" s="81"/>
+      <c r="S1604" s="81"/>
+      <c r="T1604" s="81"/>
+      <c r="U1604" s="81"/>
+      <c r="V1604" s="81"/>
+      <c r="W1604" s="81"/>
+      <c r="X1604" s="81"/>
+      <c r="Y1604" s="81"/>
+      <c r="Z1604" s="81"/>
+      <c r="AA1604" s="81"/>
+      <c r="AB1604" s="81"/>
+      <c r="AC1604" s="81"/>
+      <c r="AD1604" s="81"/>
+      <c r="AE1604" s="81"/>
+      <c r="AF1604" s="81"/>
+      <c r="AG1604" s="81"/>
+      <c r="AH1604" s="81"/>
     </row>
     <row r="1605" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1606" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19594,39 +19595,39 @@
     <row r="1695" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1697" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1698" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1698" s="78"/>
-      <c r="C1698" s="78"/>
-      <c r="D1698" s="78"/>
-      <c r="E1698" s="78"/>
-      <c r="F1698" s="78"/>
-      <c r="G1698" s="78"/>
-      <c r="H1698" s="78"/>
-      <c r="I1698" s="78"/>
-      <c r="J1698" s="78"/>
-      <c r="K1698" s="78"/>
-      <c r="L1698" s="78"/>
-      <c r="M1698" s="78"/>
-      <c r="N1698" s="78"/>
-      <c r="O1698" s="78"/>
-      <c r="P1698" s="78"/>
-      <c r="Q1698" s="78"/>
-      <c r="R1698" s="78"/>
-      <c r="S1698" s="78"/>
-      <c r="T1698" s="78"/>
-      <c r="U1698" s="78"/>
-      <c r="V1698" s="78"/>
-      <c r="W1698" s="78"/>
-      <c r="X1698" s="78"/>
-      <c r="Y1698" s="78"/>
-      <c r="Z1698" s="78"/>
-      <c r="AA1698" s="78"/>
-      <c r="AB1698" s="78"/>
-      <c r="AC1698" s="78"/>
-      <c r="AD1698" s="78"/>
-      <c r="AE1698" s="78"/>
-      <c r="AF1698" s="78"/>
-      <c r="AG1698" s="78"/>
-      <c r="AH1698" s="78"/>
+      <c r="B1698" s="81"/>
+      <c r="C1698" s="81"/>
+      <c r="D1698" s="81"/>
+      <c r="E1698" s="81"/>
+      <c r="F1698" s="81"/>
+      <c r="G1698" s="81"/>
+      <c r="H1698" s="81"/>
+      <c r="I1698" s="81"/>
+      <c r="J1698" s="81"/>
+      <c r="K1698" s="81"/>
+      <c r="L1698" s="81"/>
+      <c r="M1698" s="81"/>
+      <c r="N1698" s="81"/>
+      <c r="O1698" s="81"/>
+      <c r="P1698" s="81"/>
+      <c r="Q1698" s="81"/>
+      <c r="R1698" s="81"/>
+      <c r="S1698" s="81"/>
+      <c r="T1698" s="81"/>
+      <c r="U1698" s="81"/>
+      <c r="V1698" s="81"/>
+      <c r="W1698" s="81"/>
+      <c r="X1698" s="81"/>
+      <c r="Y1698" s="81"/>
+      <c r="Z1698" s="81"/>
+      <c r="AA1698" s="81"/>
+      <c r="AB1698" s="81"/>
+      <c r="AC1698" s="81"/>
+      <c r="AD1698" s="81"/>
+      <c r="AE1698" s="81"/>
+      <c r="AF1698" s="81"/>
+      <c r="AG1698" s="81"/>
+      <c r="AH1698" s="81"/>
     </row>
     <row r="1699" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1700" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19737,39 +19738,39 @@
     <row r="1943" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1944" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1945" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1945" s="78"/>
-      <c r="C1945" s="78"/>
-      <c r="D1945" s="78"/>
-      <c r="E1945" s="78"/>
-      <c r="F1945" s="78"/>
-      <c r="G1945" s="78"/>
-      <c r="H1945" s="78"/>
-      <c r="I1945" s="78"/>
-      <c r="J1945" s="78"/>
-      <c r="K1945" s="78"/>
-      <c r="L1945" s="78"/>
-      <c r="M1945" s="78"/>
-      <c r="N1945" s="78"/>
-      <c r="O1945" s="78"/>
-      <c r="P1945" s="78"/>
-      <c r="Q1945" s="78"/>
-      <c r="R1945" s="78"/>
-      <c r="S1945" s="78"/>
-      <c r="T1945" s="78"/>
-      <c r="U1945" s="78"/>
-      <c r="V1945" s="78"/>
-      <c r="W1945" s="78"/>
-      <c r="X1945" s="78"/>
-      <c r="Y1945" s="78"/>
-      <c r="Z1945" s="78"/>
-      <c r="AA1945" s="78"/>
-      <c r="AB1945" s="78"/>
-      <c r="AC1945" s="78"/>
-      <c r="AD1945" s="78"/>
-      <c r="AE1945" s="78"/>
-      <c r="AF1945" s="78"/>
-      <c r="AG1945" s="78"/>
-      <c r="AH1945" s="78"/>
+      <c r="B1945" s="81"/>
+      <c r="C1945" s="81"/>
+      <c r="D1945" s="81"/>
+      <c r="E1945" s="81"/>
+      <c r="F1945" s="81"/>
+      <c r="G1945" s="81"/>
+      <c r="H1945" s="81"/>
+      <c r="I1945" s="81"/>
+      <c r="J1945" s="81"/>
+      <c r="K1945" s="81"/>
+      <c r="L1945" s="81"/>
+      <c r="M1945" s="81"/>
+      <c r="N1945" s="81"/>
+      <c r="O1945" s="81"/>
+      <c r="P1945" s="81"/>
+      <c r="Q1945" s="81"/>
+      <c r="R1945" s="81"/>
+      <c r="S1945" s="81"/>
+      <c r="T1945" s="81"/>
+      <c r="U1945" s="81"/>
+      <c r="V1945" s="81"/>
+      <c r="W1945" s="81"/>
+      <c r="X1945" s="81"/>
+      <c r="Y1945" s="81"/>
+      <c r="Z1945" s="81"/>
+      <c r="AA1945" s="81"/>
+      <c r="AB1945" s="81"/>
+      <c r="AC1945" s="81"/>
+      <c r="AD1945" s="81"/>
+      <c r="AE1945" s="81"/>
+      <c r="AF1945" s="81"/>
+      <c r="AG1945" s="81"/>
+      <c r="AH1945" s="81"/>
     </row>
     <row r="1946" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1947" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19830,39 +19831,39 @@
     <row r="2029" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2030" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2031" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2031" s="78"/>
-      <c r="C2031" s="78"/>
-      <c r="D2031" s="78"/>
-      <c r="E2031" s="78"/>
-      <c r="F2031" s="78"/>
-      <c r="G2031" s="78"/>
-      <c r="H2031" s="78"/>
-      <c r="I2031" s="78"/>
-      <c r="J2031" s="78"/>
-      <c r="K2031" s="78"/>
-      <c r="L2031" s="78"/>
-      <c r="M2031" s="78"/>
-      <c r="N2031" s="78"/>
-      <c r="O2031" s="78"/>
-      <c r="P2031" s="78"/>
-      <c r="Q2031" s="78"/>
-      <c r="R2031" s="78"/>
-      <c r="S2031" s="78"/>
-      <c r="T2031" s="78"/>
-      <c r="U2031" s="78"/>
-      <c r="V2031" s="78"/>
-      <c r="W2031" s="78"/>
-      <c r="X2031" s="78"/>
-      <c r="Y2031" s="78"/>
-      <c r="Z2031" s="78"/>
-      <c r="AA2031" s="78"/>
-      <c r="AB2031" s="78"/>
-      <c r="AC2031" s="78"/>
-      <c r="AD2031" s="78"/>
-      <c r="AE2031" s="78"/>
-      <c r="AF2031" s="78"/>
-      <c r="AG2031" s="78"/>
-      <c r="AH2031" s="78"/>
+      <c r="B2031" s="81"/>
+      <c r="C2031" s="81"/>
+      <c r="D2031" s="81"/>
+      <c r="E2031" s="81"/>
+      <c r="F2031" s="81"/>
+      <c r="G2031" s="81"/>
+      <c r="H2031" s="81"/>
+      <c r="I2031" s="81"/>
+      <c r="J2031" s="81"/>
+      <c r="K2031" s="81"/>
+      <c r="L2031" s="81"/>
+      <c r="M2031" s="81"/>
+      <c r="N2031" s="81"/>
+      <c r="O2031" s="81"/>
+      <c r="P2031" s="81"/>
+      <c r="Q2031" s="81"/>
+      <c r="R2031" s="81"/>
+      <c r="S2031" s="81"/>
+      <c r="T2031" s="81"/>
+      <c r="U2031" s="81"/>
+      <c r="V2031" s="81"/>
+      <c r="W2031" s="81"/>
+      <c r="X2031" s="81"/>
+      <c r="Y2031" s="81"/>
+      <c r="Z2031" s="81"/>
+      <c r="AA2031" s="81"/>
+      <c r="AB2031" s="81"/>
+      <c r="AC2031" s="81"/>
+      <c r="AD2031" s="81"/>
+      <c r="AE2031" s="81"/>
+      <c r="AF2031" s="81"/>
+      <c r="AG2031" s="81"/>
+      <c r="AH2031" s="81"/>
     </row>
     <row r="2032" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2033" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19931,39 +19932,39 @@
     <row r="2151" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2152" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2153" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2153" s="78"/>
-      <c r="C2153" s="78"/>
-      <c r="D2153" s="78"/>
-      <c r="E2153" s="78"/>
-      <c r="F2153" s="78"/>
-      <c r="G2153" s="78"/>
-      <c r="H2153" s="78"/>
-      <c r="I2153" s="78"/>
-      <c r="J2153" s="78"/>
-      <c r="K2153" s="78"/>
-      <c r="L2153" s="78"/>
-      <c r="M2153" s="78"/>
-      <c r="N2153" s="78"/>
-      <c r="O2153" s="78"/>
-      <c r="P2153" s="78"/>
-      <c r="Q2153" s="78"/>
-      <c r="R2153" s="78"/>
-      <c r="S2153" s="78"/>
-      <c r="T2153" s="78"/>
-      <c r="U2153" s="78"/>
-      <c r="V2153" s="78"/>
-      <c r="W2153" s="78"/>
-      <c r="X2153" s="78"/>
-      <c r="Y2153" s="78"/>
-      <c r="Z2153" s="78"/>
-      <c r="AA2153" s="78"/>
-      <c r="AB2153" s="78"/>
-      <c r="AC2153" s="78"/>
-      <c r="AD2153" s="78"/>
-      <c r="AE2153" s="78"/>
-      <c r="AF2153" s="78"/>
-      <c r="AG2153" s="78"/>
-      <c r="AH2153" s="78"/>
+      <c r="B2153" s="81"/>
+      <c r="C2153" s="81"/>
+      <c r="D2153" s="81"/>
+      <c r="E2153" s="81"/>
+      <c r="F2153" s="81"/>
+      <c r="G2153" s="81"/>
+      <c r="H2153" s="81"/>
+      <c r="I2153" s="81"/>
+      <c r="J2153" s="81"/>
+      <c r="K2153" s="81"/>
+      <c r="L2153" s="81"/>
+      <c r="M2153" s="81"/>
+      <c r="N2153" s="81"/>
+      <c r="O2153" s="81"/>
+      <c r="P2153" s="81"/>
+      <c r="Q2153" s="81"/>
+      <c r="R2153" s="81"/>
+      <c r="S2153" s="81"/>
+      <c r="T2153" s="81"/>
+      <c r="U2153" s="81"/>
+      <c r="V2153" s="81"/>
+      <c r="W2153" s="81"/>
+      <c r="X2153" s="81"/>
+      <c r="Y2153" s="81"/>
+      <c r="Z2153" s="81"/>
+      <c r="AA2153" s="81"/>
+      <c r="AB2153" s="81"/>
+      <c r="AC2153" s="81"/>
+      <c r="AD2153" s="81"/>
+      <c r="AE2153" s="81"/>
+      <c r="AF2153" s="81"/>
+      <c r="AG2153" s="81"/>
+      <c r="AH2153" s="81"/>
     </row>
     <row r="2154" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2155" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20031,39 +20032,39 @@
     <row r="2315" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2316" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2317" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2317" s="78"/>
-      <c r="C2317" s="78"/>
-      <c r="D2317" s="78"/>
-      <c r="E2317" s="78"/>
-      <c r="F2317" s="78"/>
-      <c r="G2317" s="78"/>
-      <c r="H2317" s="78"/>
-      <c r="I2317" s="78"/>
-      <c r="J2317" s="78"/>
-      <c r="K2317" s="78"/>
-      <c r="L2317" s="78"/>
-      <c r="M2317" s="78"/>
-      <c r="N2317" s="78"/>
-      <c r="O2317" s="78"/>
-      <c r="P2317" s="78"/>
-      <c r="Q2317" s="78"/>
-      <c r="R2317" s="78"/>
-      <c r="S2317" s="78"/>
-      <c r="T2317" s="78"/>
-      <c r="U2317" s="78"/>
-      <c r="V2317" s="78"/>
-      <c r="W2317" s="78"/>
-      <c r="X2317" s="78"/>
-      <c r="Y2317" s="78"/>
-      <c r="Z2317" s="78"/>
-      <c r="AA2317" s="78"/>
-      <c r="AB2317" s="78"/>
-      <c r="AC2317" s="78"/>
-      <c r="AD2317" s="78"/>
-      <c r="AE2317" s="78"/>
-      <c r="AF2317" s="78"/>
-      <c r="AG2317" s="78"/>
-      <c r="AH2317" s="78"/>
+      <c r="B2317" s="81"/>
+      <c r="C2317" s="81"/>
+      <c r="D2317" s="81"/>
+      <c r="E2317" s="81"/>
+      <c r="F2317" s="81"/>
+      <c r="G2317" s="81"/>
+      <c r="H2317" s="81"/>
+      <c r="I2317" s="81"/>
+      <c r="J2317" s="81"/>
+      <c r="K2317" s="81"/>
+      <c r="L2317" s="81"/>
+      <c r="M2317" s="81"/>
+      <c r="N2317" s="81"/>
+      <c r="O2317" s="81"/>
+      <c r="P2317" s="81"/>
+      <c r="Q2317" s="81"/>
+      <c r="R2317" s="81"/>
+      <c r="S2317" s="81"/>
+      <c r="T2317" s="81"/>
+      <c r="U2317" s="81"/>
+      <c r="V2317" s="81"/>
+      <c r="W2317" s="81"/>
+      <c r="X2317" s="81"/>
+      <c r="Y2317" s="81"/>
+      <c r="Z2317" s="81"/>
+      <c r="AA2317" s="81"/>
+      <c r="AB2317" s="81"/>
+      <c r="AC2317" s="81"/>
+      <c r="AD2317" s="81"/>
+      <c r="AE2317" s="81"/>
+      <c r="AF2317" s="81"/>
+      <c r="AG2317" s="81"/>
+      <c r="AH2317" s="81"/>
     </row>
     <row r="2318" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2319" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20146,39 +20147,39 @@
     <row r="2417" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2418" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2419" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2419" s="78"/>
-      <c r="C2419" s="78"/>
-      <c r="D2419" s="78"/>
-      <c r="E2419" s="78"/>
-      <c r="F2419" s="78"/>
-      <c r="G2419" s="78"/>
-      <c r="H2419" s="78"/>
-      <c r="I2419" s="78"/>
-      <c r="J2419" s="78"/>
-      <c r="K2419" s="78"/>
-      <c r="L2419" s="78"/>
-      <c r="M2419" s="78"/>
-      <c r="N2419" s="78"/>
-      <c r="O2419" s="78"/>
-      <c r="P2419" s="78"/>
-      <c r="Q2419" s="78"/>
-      <c r="R2419" s="78"/>
-      <c r="S2419" s="78"/>
-      <c r="T2419" s="78"/>
-      <c r="U2419" s="78"/>
-      <c r="V2419" s="78"/>
-      <c r="W2419" s="78"/>
-      <c r="X2419" s="78"/>
-      <c r="Y2419" s="78"/>
-      <c r="Z2419" s="78"/>
-      <c r="AA2419" s="78"/>
-      <c r="AB2419" s="78"/>
-      <c r="AC2419" s="78"/>
-      <c r="AD2419" s="78"/>
-      <c r="AE2419" s="78"/>
-      <c r="AF2419" s="78"/>
-      <c r="AG2419" s="78"/>
-      <c r="AH2419" s="78"/>
+      <c r="B2419" s="81"/>
+      <c r="C2419" s="81"/>
+      <c r="D2419" s="81"/>
+      <c r="E2419" s="81"/>
+      <c r="F2419" s="81"/>
+      <c r="G2419" s="81"/>
+      <c r="H2419" s="81"/>
+      <c r="I2419" s="81"/>
+      <c r="J2419" s="81"/>
+      <c r="K2419" s="81"/>
+      <c r="L2419" s="81"/>
+      <c r="M2419" s="81"/>
+      <c r="N2419" s="81"/>
+      <c r="O2419" s="81"/>
+      <c r="P2419" s="81"/>
+      <c r="Q2419" s="81"/>
+      <c r="R2419" s="81"/>
+      <c r="S2419" s="81"/>
+      <c r="T2419" s="81"/>
+      <c r="U2419" s="81"/>
+      <c r="V2419" s="81"/>
+      <c r="W2419" s="81"/>
+      <c r="X2419" s="81"/>
+      <c r="Y2419" s="81"/>
+      <c r="Z2419" s="81"/>
+      <c r="AA2419" s="81"/>
+      <c r="AB2419" s="81"/>
+      <c r="AC2419" s="81"/>
+      <c r="AD2419" s="81"/>
+      <c r="AE2419" s="81"/>
+      <c r="AF2419" s="81"/>
+      <c r="AG2419" s="81"/>
+      <c r="AH2419" s="81"/>
     </row>
     <row r="2420" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2421" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20248,39 +20249,39 @@
     <row r="2507" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2508" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2509" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2509" s="78"/>
-      <c r="C2509" s="78"/>
-      <c r="D2509" s="78"/>
-      <c r="E2509" s="78"/>
-      <c r="F2509" s="78"/>
-      <c r="G2509" s="78"/>
-      <c r="H2509" s="78"/>
-      <c r="I2509" s="78"/>
-      <c r="J2509" s="78"/>
-      <c r="K2509" s="78"/>
-      <c r="L2509" s="78"/>
-      <c r="M2509" s="78"/>
-      <c r="N2509" s="78"/>
-      <c r="O2509" s="78"/>
-      <c r="P2509" s="78"/>
-      <c r="Q2509" s="78"/>
-      <c r="R2509" s="78"/>
-      <c r="S2509" s="78"/>
-      <c r="T2509" s="78"/>
-      <c r="U2509" s="78"/>
-      <c r="V2509" s="78"/>
-      <c r="W2509" s="78"/>
-      <c r="X2509" s="78"/>
-      <c r="Y2509" s="78"/>
-      <c r="Z2509" s="78"/>
-      <c r="AA2509" s="78"/>
-      <c r="AB2509" s="78"/>
-      <c r="AC2509" s="78"/>
-      <c r="AD2509" s="78"/>
-      <c r="AE2509" s="78"/>
-      <c r="AF2509" s="78"/>
-      <c r="AG2509" s="78"/>
-      <c r="AH2509" s="78"/>
+      <c r="B2509" s="81"/>
+      <c r="C2509" s="81"/>
+      <c r="D2509" s="81"/>
+      <c r="E2509" s="81"/>
+      <c r="F2509" s="81"/>
+      <c r="G2509" s="81"/>
+      <c r="H2509" s="81"/>
+      <c r="I2509" s="81"/>
+      <c r="J2509" s="81"/>
+      <c r="K2509" s="81"/>
+      <c r="L2509" s="81"/>
+      <c r="M2509" s="81"/>
+      <c r="N2509" s="81"/>
+      <c r="O2509" s="81"/>
+      <c r="P2509" s="81"/>
+      <c r="Q2509" s="81"/>
+      <c r="R2509" s="81"/>
+      <c r="S2509" s="81"/>
+      <c r="T2509" s="81"/>
+      <c r="U2509" s="81"/>
+      <c r="V2509" s="81"/>
+      <c r="W2509" s="81"/>
+      <c r="X2509" s="81"/>
+      <c r="Y2509" s="81"/>
+      <c r="Z2509" s="81"/>
+      <c r="AA2509" s="81"/>
+      <c r="AB2509" s="81"/>
+      <c r="AC2509" s="81"/>
+      <c r="AD2509" s="81"/>
+      <c r="AE2509" s="81"/>
+      <c r="AF2509" s="81"/>
+      <c r="AG2509" s="81"/>
+      <c r="AH2509" s="81"/>
     </row>
     <row r="2510" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2511" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20345,39 +20346,39 @@
     <row r="2596" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2597" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2598" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2598" s="78"/>
-      <c r="C2598" s="78"/>
-      <c r="D2598" s="78"/>
-      <c r="E2598" s="78"/>
-      <c r="F2598" s="78"/>
-      <c r="G2598" s="78"/>
-      <c r="H2598" s="78"/>
-      <c r="I2598" s="78"/>
-      <c r="J2598" s="78"/>
-      <c r="K2598" s="78"/>
-      <c r="L2598" s="78"/>
-      <c r="M2598" s="78"/>
-      <c r="N2598" s="78"/>
-      <c r="O2598" s="78"/>
-      <c r="P2598" s="78"/>
-      <c r="Q2598" s="78"/>
-      <c r="R2598" s="78"/>
-      <c r="S2598" s="78"/>
-      <c r="T2598" s="78"/>
-      <c r="U2598" s="78"/>
-      <c r="V2598" s="78"/>
-      <c r="W2598" s="78"/>
-      <c r="X2598" s="78"/>
-      <c r="Y2598" s="78"/>
-      <c r="Z2598" s="78"/>
-      <c r="AA2598" s="78"/>
-      <c r="AB2598" s="78"/>
-      <c r="AC2598" s="78"/>
-      <c r="AD2598" s="78"/>
-      <c r="AE2598" s="78"/>
-      <c r="AF2598" s="78"/>
-      <c r="AG2598" s="78"/>
-      <c r="AH2598" s="78"/>
+      <c r="B2598" s="81"/>
+      <c r="C2598" s="81"/>
+      <c r="D2598" s="81"/>
+      <c r="E2598" s="81"/>
+      <c r="F2598" s="81"/>
+      <c r="G2598" s="81"/>
+      <c r="H2598" s="81"/>
+      <c r="I2598" s="81"/>
+      <c r="J2598" s="81"/>
+      <c r="K2598" s="81"/>
+      <c r="L2598" s="81"/>
+      <c r="M2598" s="81"/>
+      <c r="N2598" s="81"/>
+      <c r="O2598" s="81"/>
+      <c r="P2598" s="81"/>
+      <c r="Q2598" s="81"/>
+      <c r="R2598" s="81"/>
+      <c r="S2598" s="81"/>
+      <c r="T2598" s="81"/>
+      <c r="U2598" s="81"/>
+      <c r="V2598" s="81"/>
+      <c r="W2598" s="81"/>
+      <c r="X2598" s="81"/>
+      <c r="Y2598" s="81"/>
+      <c r="Z2598" s="81"/>
+      <c r="AA2598" s="81"/>
+      <c r="AB2598" s="81"/>
+      <c r="AC2598" s="81"/>
+      <c r="AD2598" s="81"/>
+      <c r="AE2598" s="81"/>
+      <c r="AF2598" s="81"/>
+      <c r="AG2598" s="81"/>
+      <c r="AH2598" s="81"/>
     </row>
     <row r="2599" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2600" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20484,39 +20485,39 @@
     <row r="2717" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2718" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2719" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2719" s="78"/>
-      <c r="C2719" s="78"/>
-      <c r="D2719" s="78"/>
-      <c r="E2719" s="78"/>
-      <c r="F2719" s="78"/>
-      <c r="G2719" s="78"/>
-      <c r="H2719" s="78"/>
-      <c r="I2719" s="78"/>
-      <c r="J2719" s="78"/>
-      <c r="K2719" s="78"/>
-      <c r="L2719" s="78"/>
-      <c r="M2719" s="78"/>
-      <c r="N2719" s="78"/>
-      <c r="O2719" s="78"/>
-      <c r="P2719" s="78"/>
-      <c r="Q2719" s="78"/>
-      <c r="R2719" s="78"/>
-      <c r="S2719" s="78"/>
-      <c r="T2719" s="78"/>
-      <c r="U2719" s="78"/>
-      <c r="V2719" s="78"/>
-      <c r="W2719" s="78"/>
-      <c r="X2719" s="78"/>
-      <c r="Y2719" s="78"/>
-      <c r="Z2719" s="78"/>
-      <c r="AA2719" s="78"/>
-      <c r="AB2719" s="78"/>
-      <c r="AC2719" s="78"/>
-      <c r="AD2719" s="78"/>
-      <c r="AE2719" s="78"/>
-      <c r="AF2719" s="78"/>
-      <c r="AG2719" s="78"/>
-      <c r="AH2719" s="78"/>
+      <c r="B2719" s="81"/>
+      <c r="C2719" s="81"/>
+      <c r="D2719" s="81"/>
+      <c r="E2719" s="81"/>
+      <c r="F2719" s="81"/>
+      <c r="G2719" s="81"/>
+      <c r="H2719" s="81"/>
+      <c r="I2719" s="81"/>
+      <c r="J2719" s="81"/>
+      <c r="K2719" s="81"/>
+      <c r="L2719" s="81"/>
+      <c r="M2719" s="81"/>
+      <c r="N2719" s="81"/>
+      <c r="O2719" s="81"/>
+      <c r="P2719" s="81"/>
+      <c r="Q2719" s="81"/>
+      <c r="R2719" s="81"/>
+      <c r="S2719" s="81"/>
+      <c r="T2719" s="81"/>
+      <c r="U2719" s="81"/>
+      <c r="V2719" s="81"/>
+      <c r="W2719" s="81"/>
+      <c r="X2719" s="81"/>
+      <c r="Y2719" s="81"/>
+      <c r="Z2719" s="81"/>
+      <c r="AA2719" s="81"/>
+      <c r="AB2719" s="81"/>
+      <c r="AC2719" s="81"/>
+      <c r="AD2719" s="81"/>
+      <c r="AE2719" s="81"/>
+      <c r="AF2719" s="81"/>
+      <c r="AG2719" s="81"/>
+      <c r="AH2719" s="81"/>
     </row>
     <row r="2720" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2721" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20596,39 +20597,39 @@
     <row r="2835" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2836" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2837" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2837" s="78"/>
-      <c r="C2837" s="78"/>
-      <c r="D2837" s="78"/>
-      <c r="E2837" s="78"/>
-      <c r="F2837" s="78"/>
-      <c r="G2837" s="78"/>
-      <c r="H2837" s="78"/>
-      <c r="I2837" s="78"/>
-      <c r="J2837" s="78"/>
-      <c r="K2837" s="78"/>
-      <c r="L2837" s="78"/>
-      <c r="M2837" s="78"/>
-      <c r="N2837" s="78"/>
-      <c r="O2837" s="78"/>
-      <c r="P2837" s="78"/>
-      <c r="Q2837" s="78"/>
-      <c r="R2837" s="78"/>
-      <c r="S2837" s="78"/>
-      <c r="T2837" s="78"/>
-      <c r="U2837" s="78"/>
-      <c r="V2837" s="78"/>
-      <c r="W2837" s="78"/>
-      <c r="X2837" s="78"/>
-      <c r="Y2837" s="78"/>
-      <c r="Z2837" s="78"/>
-      <c r="AA2837" s="78"/>
-      <c r="AB2837" s="78"/>
-      <c r="AC2837" s="78"/>
-      <c r="AD2837" s="78"/>
-      <c r="AE2837" s="78"/>
-      <c r="AF2837" s="78"/>
-      <c r="AG2837" s="78"/>
-      <c r="AH2837" s="78"/>
+      <c r="B2837" s="81"/>
+      <c r="C2837" s="81"/>
+      <c r="D2837" s="81"/>
+      <c r="E2837" s="81"/>
+      <c r="F2837" s="81"/>
+      <c r="G2837" s="81"/>
+      <c r="H2837" s="81"/>
+      <c r="I2837" s="81"/>
+      <c r="J2837" s="81"/>
+      <c r="K2837" s="81"/>
+      <c r="L2837" s="81"/>
+      <c r="M2837" s="81"/>
+      <c r="N2837" s="81"/>
+      <c r="O2837" s="81"/>
+      <c r="P2837" s="81"/>
+      <c r="Q2837" s="81"/>
+      <c r="R2837" s="81"/>
+      <c r="S2837" s="81"/>
+      <c r="T2837" s="81"/>
+      <c r="U2837" s="81"/>
+      <c r="V2837" s="81"/>
+      <c r="W2837" s="81"/>
+      <c r="X2837" s="81"/>
+      <c r="Y2837" s="81"/>
+      <c r="Z2837" s="81"/>
+      <c r="AA2837" s="81"/>
+      <c r="AB2837" s="81"/>
+      <c r="AC2837" s="81"/>
+      <c r="AD2837" s="81"/>
+      <c r="AE2837" s="81"/>
+      <c r="AF2837" s="81"/>
+      <c r="AG2837" s="81"/>
+      <c r="AH2837" s="81"/>
     </row>
     <row r="2838" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2839" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20636,27 +20637,27 @@
     <row r="2841" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B72:AG72"/>
-    <mergeCell ref="B112:AH112"/>
-    <mergeCell ref="B308:AH308"/>
-    <mergeCell ref="B511:AH511"/>
-    <mergeCell ref="B712:AH712"/>
-    <mergeCell ref="B887:AH887"/>
-    <mergeCell ref="B1100:AH1100"/>
-    <mergeCell ref="B1227:AH1227"/>
-    <mergeCell ref="B1390:AH1390"/>
-    <mergeCell ref="B1502:AH1502"/>
-    <mergeCell ref="B1604:AH1604"/>
-    <mergeCell ref="B1698:AH1698"/>
-    <mergeCell ref="B1945:AH1945"/>
-    <mergeCell ref="B2031:AH2031"/>
-    <mergeCell ref="B2719:AH2719"/>
     <mergeCell ref="B2837:AH2837"/>
     <mergeCell ref="B2153:AH2153"/>
     <mergeCell ref="B2317:AH2317"/>
     <mergeCell ref="B2419:AH2419"/>
     <mergeCell ref="B2509:AH2509"/>
     <mergeCell ref="B2598:AH2598"/>
+    <mergeCell ref="B1604:AH1604"/>
+    <mergeCell ref="B1698:AH1698"/>
+    <mergeCell ref="B1945:AH1945"/>
+    <mergeCell ref="B2031:AH2031"/>
+    <mergeCell ref="B2719:AH2719"/>
+    <mergeCell ref="B887:AH887"/>
+    <mergeCell ref="B1100:AH1100"/>
+    <mergeCell ref="B1227:AH1227"/>
+    <mergeCell ref="B1390:AH1390"/>
+    <mergeCell ref="B1502:AH1502"/>
+    <mergeCell ref="B72:AG72"/>
+    <mergeCell ref="B112:AH112"/>
+    <mergeCell ref="B308:AH308"/>
+    <mergeCell ref="B511:AH511"/>
+    <mergeCell ref="B712:AH712"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27508,41 +27509,41 @@
       </c>
     </row>
     <row r="112" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="81" t="s">
+      <c r="B112" s="82" t="s">
         <v>623</v>
       </c>
-      <c r="C112" s="78"/>
-      <c r="D112" s="78"/>
-      <c r="E112" s="78"/>
-      <c r="F112" s="78"/>
-      <c r="G112" s="78"/>
-      <c r="H112" s="78"/>
-      <c r="I112" s="78"/>
-      <c r="J112" s="78"/>
-      <c r="K112" s="78"/>
-      <c r="L112" s="78"/>
-      <c r="M112" s="78"/>
-      <c r="N112" s="78"/>
-      <c r="O112" s="78"/>
-      <c r="P112" s="78"/>
-      <c r="Q112" s="78"/>
-      <c r="R112" s="78"/>
-      <c r="S112" s="78"/>
-      <c r="T112" s="78"/>
-      <c r="U112" s="78"/>
-      <c r="V112" s="78"/>
-      <c r="W112" s="78"/>
-      <c r="X112" s="78"/>
-      <c r="Y112" s="78"/>
-      <c r="Z112" s="78"/>
-      <c r="AA112" s="78"/>
-      <c r="AB112" s="78"/>
-      <c r="AC112" s="78"/>
-      <c r="AD112" s="78"/>
-      <c r="AE112" s="78"/>
-      <c r="AF112" s="78"/>
-      <c r="AG112" s="78"/>
-      <c r="AH112" s="78"/>
+      <c r="C112" s="81"/>
+      <c r="D112" s="81"/>
+      <c r="E112" s="81"/>
+      <c r="F112" s="81"/>
+      <c r="G112" s="81"/>
+      <c r="H112" s="81"/>
+      <c r="I112" s="81"/>
+      <c r="J112" s="81"/>
+      <c r="K112" s="81"/>
+      <c r="L112" s="81"/>
+      <c r="M112" s="81"/>
+      <c r="N112" s="81"/>
+      <c r="O112" s="81"/>
+      <c r="P112" s="81"/>
+      <c r="Q112" s="81"/>
+      <c r="R112" s="81"/>
+      <c r="S112" s="81"/>
+      <c r="T112" s="81"/>
+      <c r="U112" s="81"/>
+      <c r="V112" s="81"/>
+      <c r="W112" s="81"/>
+      <c r="X112" s="81"/>
+      <c r="Y112" s="81"/>
+      <c r="Z112" s="81"/>
+      <c r="AA112" s="81"/>
+      <c r="AB112" s="81"/>
+      <c r="AC112" s="81"/>
+      <c r="AD112" s="81"/>
+      <c r="AE112" s="81"/>
+      <c r="AF112" s="81"/>
+      <c r="AG112" s="81"/>
+      <c r="AH112" s="81"/>
     </row>
     <row r="113" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="41" t="s">
@@ -27772,39 +27773,39 @@
     <row r="306" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="307" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="308" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B308" s="78"/>
-      <c r="C308" s="78"/>
-      <c r="D308" s="78"/>
-      <c r="E308" s="78"/>
-      <c r="F308" s="78"/>
-      <c r="G308" s="78"/>
-      <c r="H308" s="78"/>
-      <c r="I308" s="78"/>
-      <c r="J308" s="78"/>
-      <c r="K308" s="78"/>
-      <c r="L308" s="78"/>
-      <c r="M308" s="78"/>
-      <c r="N308" s="78"/>
-      <c r="O308" s="78"/>
-      <c r="P308" s="78"/>
-      <c r="Q308" s="78"/>
-      <c r="R308" s="78"/>
-      <c r="S308" s="78"/>
-      <c r="T308" s="78"/>
-      <c r="U308" s="78"/>
-      <c r="V308" s="78"/>
-      <c r="W308" s="78"/>
-      <c r="X308" s="78"/>
-      <c r="Y308" s="78"/>
-      <c r="Z308" s="78"/>
-      <c r="AA308" s="78"/>
-      <c r="AB308" s="78"/>
-      <c r="AC308" s="78"/>
-      <c r="AD308" s="78"/>
-      <c r="AE308" s="78"/>
-      <c r="AF308" s="78"/>
-      <c r="AG308" s="78"/>
-      <c r="AH308" s="78"/>
+      <c r="B308" s="81"/>
+      <c r="C308" s="81"/>
+      <c r="D308" s="81"/>
+      <c r="E308" s="81"/>
+      <c r="F308" s="81"/>
+      <c r="G308" s="81"/>
+      <c r="H308" s="81"/>
+      <c r="I308" s="81"/>
+      <c r="J308" s="81"/>
+      <c r="K308" s="81"/>
+      <c r="L308" s="81"/>
+      <c r="M308" s="81"/>
+      <c r="N308" s="81"/>
+      <c r="O308" s="81"/>
+      <c r="P308" s="81"/>
+      <c r="Q308" s="81"/>
+      <c r="R308" s="81"/>
+      <c r="S308" s="81"/>
+      <c r="T308" s="81"/>
+      <c r="U308" s="81"/>
+      <c r="V308" s="81"/>
+      <c r="W308" s="81"/>
+      <c r="X308" s="81"/>
+      <c r="Y308" s="81"/>
+      <c r="Z308" s="81"/>
+      <c r="AA308" s="81"/>
+      <c r="AB308" s="81"/>
+      <c r="AC308" s="81"/>
+      <c r="AD308" s="81"/>
+      <c r="AE308" s="81"/>
+      <c r="AF308" s="81"/>
+      <c r="AG308" s="81"/>
+      <c r="AH308" s="81"/>
     </row>
     <row r="309" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="310" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -28009,39 +28010,39 @@
     <row r="509" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="510" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="511" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B511" s="78"/>
-      <c r="C511" s="78"/>
-      <c r="D511" s="78"/>
-      <c r="E511" s="78"/>
-      <c r="F511" s="78"/>
-      <c r="G511" s="78"/>
-      <c r="H511" s="78"/>
-      <c r="I511" s="78"/>
-      <c r="J511" s="78"/>
-      <c r="K511" s="78"/>
-      <c r="L511" s="78"/>
-      <c r="M511" s="78"/>
-      <c r="N511" s="78"/>
-      <c r="O511" s="78"/>
-      <c r="P511" s="78"/>
-      <c r="Q511" s="78"/>
-      <c r="R511" s="78"/>
-      <c r="S511" s="78"/>
-      <c r="T511" s="78"/>
-      <c r="U511" s="78"/>
-      <c r="V511" s="78"/>
-      <c r="W511" s="78"/>
-      <c r="X511" s="78"/>
-      <c r="Y511" s="78"/>
-      <c r="Z511" s="78"/>
-      <c r="AA511" s="78"/>
-      <c r="AB511" s="78"/>
-      <c r="AC511" s="78"/>
-      <c r="AD511" s="78"/>
-      <c r="AE511" s="78"/>
-      <c r="AF511" s="78"/>
-      <c r="AG511" s="78"/>
-      <c r="AH511" s="78"/>
+      <c r="B511" s="81"/>
+      <c r="C511" s="81"/>
+      <c r="D511" s="81"/>
+      <c r="E511" s="81"/>
+      <c r="F511" s="81"/>
+      <c r="G511" s="81"/>
+      <c r="H511" s="81"/>
+      <c r="I511" s="81"/>
+      <c r="J511" s="81"/>
+      <c r="K511" s="81"/>
+      <c r="L511" s="81"/>
+      <c r="M511" s="81"/>
+      <c r="N511" s="81"/>
+      <c r="O511" s="81"/>
+      <c r="P511" s="81"/>
+      <c r="Q511" s="81"/>
+      <c r="R511" s="81"/>
+      <c r="S511" s="81"/>
+      <c r="T511" s="81"/>
+      <c r="U511" s="81"/>
+      <c r="V511" s="81"/>
+      <c r="W511" s="81"/>
+      <c r="X511" s="81"/>
+      <c r="Y511" s="81"/>
+      <c r="Z511" s="81"/>
+      <c r="AA511" s="81"/>
+      <c r="AB511" s="81"/>
+      <c r="AC511" s="81"/>
+      <c r="AD511" s="81"/>
+      <c r="AE511" s="81"/>
+      <c r="AF511" s="81"/>
+      <c r="AG511" s="81"/>
+      <c r="AH511" s="81"/>
     </row>
     <row r="512" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="513" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -28244,39 +28245,39 @@
     <row r="710" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="711" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="712" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B712" s="78"/>
-      <c r="C712" s="78"/>
-      <c r="D712" s="78"/>
-      <c r="E712" s="78"/>
-      <c r="F712" s="78"/>
-      <c r="G712" s="78"/>
-      <c r="H712" s="78"/>
-      <c r="I712" s="78"/>
-      <c r="J712" s="78"/>
-      <c r="K712" s="78"/>
-      <c r="L712" s="78"/>
-      <c r="M712" s="78"/>
-      <c r="N712" s="78"/>
-      <c r="O712" s="78"/>
-      <c r="P712" s="78"/>
-      <c r="Q712" s="78"/>
-      <c r="R712" s="78"/>
-      <c r="S712" s="78"/>
-      <c r="T712" s="78"/>
-      <c r="U712" s="78"/>
-      <c r="V712" s="78"/>
-      <c r="W712" s="78"/>
-      <c r="X712" s="78"/>
-      <c r="Y712" s="78"/>
-      <c r="Z712" s="78"/>
-      <c r="AA712" s="78"/>
-      <c r="AB712" s="78"/>
-      <c r="AC712" s="78"/>
-      <c r="AD712" s="78"/>
-      <c r="AE712" s="78"/>
-      <c r="AF712" s="78"/>
-      <c r="AG712" s="78"/>
-      <c r="AH712" s="78"/>
+      <c r="B712" s="81"/>
+      <c r="C712" s="81"/>
+      <c r="D712" s="81"/>
+      <c r="E712" s="81"/>
+      <c r="F712" s="81"/>
+      <c r="G712" s="81"/>
+      <c r="H712" s="81"/>
+      <c r="I712" s="81"/>
+      <c r="J712" s="81"/>
+      <c r="K712" s="81"/>
+      <c r="L712" s="81"/>
+      <c r="M712" s="81"/>
+      <c r="N712" s="81"/>
+      <c r="O712" s="81"/>
+      <c r="P712" s="81"/>
+      <c r="Q712" s="81"/>
+      <c r="R712" s="81"/>
+      <c r="S712" s="81"/>
+      <c r="T712" s="81"/>
+      <c r="U712" s="81"/>
+      <c r="V712" s="81"/>
+      <c r="W712" s="81"/>
+      <c r="X712" s="81"/>
+      <c r="Y712" s="81"/>
+      <c r="Z712" s="81"/>
+      <c r="AA712" s="81"/>
+      <c r="AB712" s="81"/>
+      <c r="AC712" s="81"/>
+      <c r="AD712" s="81"/>
+      <c r="AE712" s="81"/>
+      <c r="AF712" s="81"/>
+      <c r="AG712" s="81"/>
+      <c r="AH712" s="81"/>
     </row>
     <row r="713" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="714" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -28453,39 +28454,39 @@
     <row r="885" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="886" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="887" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B887" s="78"/>
-      <c r="C887" s="78"/>
-      <c r="D887" s="78"/>
-      <c r="E887" s="78"/>
-      <c r="F887" s="78"/>
-      <c r="G887" s="78"/>
-      <c r="H887" s="78"/>
-      <c r="I887" s="78"/>
-      <c r="J887" s="78"/>
-      <c r="K887" s="78"/>
-      <c r="L887" s="78"/>
-      <c r="M887" s="78"/>
-      <c r="N887" s="78"/>
-      <c r="O887" s="78"/>
-      <c r="P887" s="78"/>
-      <c r="Q887" s="78"/>
-      <c r="R887" s="78"/>
-      <c r="S887" s="78"/>
-      <c r="T887" s="78"/>
-      <c r="U887" s="78"/>
-      <c r="V887" s="78"/>
-      <c r="W887" s="78"/>
-      <c r="X887" s="78"/>
-      <c r="Y887" s="78"/>
-      <c r="Z887" s="78"/>
-      <c r="AA887" s="78"/>
-      <c r="AB887" s="78"/>
-      <c r="AC887" s="78"/>
-      <c r="AD887" s="78"/>
-      <c r="AE887" s="78"/>
-      <c r="AF887" s="78"/>
-      <c r="AG887" s="78"/>
-      <c r="AH887" s="78"/>
+      <c r="B887" s="81"/>
+      <c r="C887" s="81"/>
+      <c r="D887" s="81"/>
+      <c r="E887" s="81"/>
+      <c r="F887" s="81"/>
+      <c r="G887" s="81"/>
+      <c r="H887" s="81"/>
+      <c r="I887" s="81"/>
+      <c r="J887" s="81"/>
+      <c r="K887" s="81"/>
+      <c r="L887" s="81"/>
+      <c r="M887" s="81"/>
+      <c r="N887" s="81"/>
+      <c r="O887" s="81"/>
+      <c r="P887" s="81"/>
+      <c r="Q887" s="81"/>
+      <c r="R887" s="81"/>
+      <c r="S887" s="81"/>
+      <c r="T887" s="81"/>
+      <c r="U887" s="81"/>
+      <c r="V887" s="81"/>
+      <c r="W887" s="81"/>
+      <c r="X887" s="81"/>
+      <c r="Y887" s="81"/>
+      <c r="Z887" s="81"/>
+      <c r="AA887" s="81"/>
+      <c r="AB887" s="81"/>
+      <c r="AC887" s="81"/>
+      <c r="AD887" s="81"/>
+      <c r="AE887" s="81"/>
+      <c r="AF887" s="81"/>
+      <c r="AG887" s="81"/>
+      <c r="AH887" s="81"/>
     </row>
     <row r="888" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="889" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -28700,39 +28701,39 @@
     <row r="1098" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1099" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1100" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1100" s="78"/>
-      <c r="C1100" s="78"/>
-      <c r="D1100" s="78"/>
-      <c r="E1100" s="78"/>
-      <c r="F1100" s="78"/>
-      <c r="G1100" s="78"/>
-      <c r="H1100" s="78"/>
-      <c r="I1100" s="78"/>
-      <c r="J1100" s="78"/>
-      <c r="K1100" s="78"/>
-      <c r="L1100" s="78"/>
-      <c r="M1100" s="78"/>
-      <c r="N1100" s="78"/>
-      <c r="O1100" s="78"/>
-      <c r="P1100" s="78"/>
-      <c r="Q1100" s="78"/>
-      <c r="R1100" s="78"/>
-      <c r="S1100" s="78"/>
-      <c r="T1100" s="78"/>
-      <c r="U1100" s="78"/>
-      <c r="V1100" s="78"/>
-      <c r="W1100" s="78"/>
-      <c r="X1100" s="78"/>
-      <c r="Y1100" s="78"/>
-      <c r="Z1100" s="78"/>
-      <c r="AA1100" s="78"/>
-      <c r="AB1100" s="78"/>
-      <c r="AC1100" s="78"/>
-      <c r="AD1100" s="78"/>
-      <c r="AE1100" s="78"/>
-      <c r="AF1100" s="78"/>
-      <c r="AG1100" s="78"/>
-      <c r="AH1100" s="78"/>
+      <c r="B1100" s="81"/>
+      <c r="C1100" s="81"/>
+      <c r="D1100" s="81"/>
+      <c r="E1100" s="81"/>
+      <c r="F1100" s="81"/>
+      <c r="G1100" s="81"/>
+      <c r="H1100" s="81"/>
+      <c r="I1100" s="81"/>
+      <c r="J1100" s="81"/>
+      <c r="K1100" s="81"/>
+      <c r="L1100" s="81"/>
+      <c r="M1100" s="81"/>
+      <c r="N1100" s="81"/>
+      <c r="O1100" s="81"/>
+      <c r="P1100" s="81"/>
+      <c r="Q1100" s="81"/>
+      <c r="R1100" s="81"/>
+      <c r="S1100" s="81"/>
+      <c r="T1100" s="81"/>
+      <c r="U1100" s="81"/>
+      <c r="V1100" s="81"/>
+      <c r="W1100" s="81"/>
+      <c r="X1100" s="81"/>
+      <c r="Y1100" s="81"/>
+      <c r="Z1100" s="81"/>
+      <c r="AA1100" s="81"/>
+      <c r="AB1100" s="81"/>
+      <c r="AC1100" s="81"/>
+      <c r="AD1100" s="81"/>
+      <c r="AE1100" s="81"/>
+      <c r="AF1100" s="81"/>
+      <c r="AG1100" s="81"/>
+      <c r="AH1100" s="81"/>
     </row>
     <row r="1101" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1102" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -28861,39 +28862,39 @@
     <row r="1225" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1226" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1227" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1227" s="78"/>
-      <c r="C1227" s="78"/>
-      <c r="D1227" s="78"/>
-      <c r="E1227" s="78"/>
-      <c r="F1227" s="78"/>
-      <c r="G1227" s="78"/>
-      <c r="H1227" s="78"/>
-      <c r="I1227" s="78"/>
-      <c r="J1227" s="78"/>
-      <c r="K1227" s="78"/>
-      <c r="L1227" s="78"/>
-      <c r="M1227" s="78"/>
-      <c r="N1227" s="78"/>
-      <c r="O1227" s="78"/>
-      <c r="P1227" s="78"/>
-      <c r="Q1227" s="78"/>
-      <c r="R1227" s="78"/>
-      <c r="S1227" s="78"/>
-      <c r="T1227" s="78"/>
-      <c r="U1227" s="78"/>
-      <c r="V1227" s="78"/>
-      <c r="W1227" s="78"/>
-      <c r="X1227" s="78"/>
-      <c r="Y1227" s="78"/>
-      <c r="Z1227" s="78"/>
-      <c r="AA1227" s="78"/>
-      <c r="AB1227" s="78"/>
-      <c r="AC1227" s="78"/>
-      <c r="AD1227" s="78"/>
-      <c r="AE1227" s="78"/>
-      <c r="AF1227" s="78"/>
-      <c r="AG1227" s="78"/>
-      <c r="AH1227" s="78"/>
+      <c r="B1227" s="81"/>
+      <c r="C1227" s="81"/>
+      <c r="D1227" s="81"/>
+      <c r="E1227" s="81"/>
+      <c r="F1227" s="81"/>
+      <c r="G1227" s="81"/>
+      <c r="H1227" s="81"/>
+      <c r="I1227" s="81"/>
+      <c r="J1227" s="81"/>
+      <c r="K1227" s="81"/>
+      <c r="L1227" s="81"/>
+      <c r="M1227" s="81"/>
+      <c r="N1227" s="81"/>
+      <c r="O1227" s="81"/>
+      <c r="P1227" s="81"/>
+      <c r="Q1227" s="81"/>
+      <c r="R1227" s="81"/>
+      <c r="S1227" s="81"/>
+      <c r="T1227" s="81"/>
+      <c r="U1227" s="81"/>
+      <c r="V1227" s="81"/>
+      <c r="W1227" s="81"/>
+      <c r="X1227" s="81"/>
+      <c r="Y1227" s="81"/>
+      <c r="Z1227" s="81"/>
+      <c r="AA1227" s="81"/>
+      <c r="AB1227" s="81"/>
+      <c r="AC1227" s="81"/>
+      <c r="AD1227" s="81"/>
+      <c r="AE1227" s="81"/>
+      <c r="AF1227" s="81"/>
+      <c r="AG1227" s="81"/>
+      <c r="AH1227" s="81"/>
     </row>
     <row r="1228" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1229" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29058,39 +29059,39 @@
     <row r="1388" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1389" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1390" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1390" s="78"/>
-      <c r="C1390" s="78"/>
-      <c r="D1390" s="78"/>
-      <c r="E1390" s="78"/>
-      <c r="F1390" s="78"/>
-      <c r="G1390" s="78"/>
-      <c r="H1390" s="78"/>
-      <c r="I1390" s="78"/>
-      <c r="J1390" s="78"/>
-      <c r="K1390" s="78"/>
-      <c r="L1390" s="78"/>
-      <c r="M1390" s="78"/>
-      <c r="N1390" s="78"/>
-      <c r="O1390" s="78"/>
-      <c r="P1390" s="78"/>
-      <c r="Q1390" s="78"/>
-      <c r="R1390" s="78"/>
-      <c r="S1390" s="78"/>
-      <c r="T1390" s="78"/>
-      <c r="U1390" s="78"/>
-      <c r="V1390" s="78"/>
-      <c r="W1390" s="78"/>
-      <c r="X1390" s="78"/>
-      <c r="Y1390" s="78"/>
-      <c r="Z1390" s="78"/>
-      <c r="AA1390" s="78"/>
-      <c r="AB1390" s="78"/>
-      <c r="AC1390" s="78"/>
-      <c r="AD1390" s="78"/>
-      <c r="AE1390" s="78"/>
-      <c r="AF1390" s="78"/>
-      <c r="AG1390" s="78"/>
-      <c r="AH1390" s="78"/>
+      <c r="B1390" s="81"/>
+      <c r="C1390" s="81"/>
+      <c r="D1390" s="81"/>
+      <c r="E1390" s="81"/>
+      <c r="F1390" s="81"/>
+      <c r="G1390" s="81"/>
+      <c r="H1390" s="81"/>
+      <c r="I1390" s="81"/>
+      <c r="J1390" s="81"/>
+      <c r="K1390" s="81"/>
+      <c r="L1390" s="81"/>
+      <c r="M1390" s="81"/>
+      <c r="N1390" s="81"/>
+      <c r="O1390" s="81"/>
+      <c r="P1390" s="81"/>
+      <c r="Q1390" s="81"/>
+      <c r="R1390" s="81"/>
+      <c r="S1390" s="81"/>
+      <c r="T1390" s="81"/>
+      <c r="U1390" s="81"/>
+      <c r="V1390" s="81"/>
+      <c r="W1390" s="81"/>
+      <c r="X1390" s="81"/>
+      <c r="Y1390" s="81"/>
+      <c r="Z1390" s="81"/>
+      <c r="AA1390" s="81"/>
+      <c r="AB1390" s="81"/>
+      <c r="AC1390" s="81"/>
+      <c r="AD1390" s="81"/>
+      <c r="AE1390" s="81"/>
+      <c r="AF1390" s="81"/>
+      <c r="AG1390" s="81"/>
+      <c r="AH1390" s="81"/>
     </row>
     <row r="1391" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1392" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29204,39 +29205,39 @@
     <row r="1500" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1501" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1502" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1502" s="78"/>
-      <c r="C1502" s="78"/>
-      <c r="D1502" s="78"/>
-      <c r="E1502" s="78"/>
-      <c r="F1502" s="78"/>
-      <c r="G1502" s="78"/>
-      <c r="H1502" s="78"/>
-      <c r="I1502" s="78"/>
-      <c r="J1502" s="78"/>
-      <c r="K1502" s="78"/>
-      <c r="L1502" s="78"/>
-      <c r="M1502" s="78"/>
-      <c r="N1502" s="78"/>
-      <c r="O1502" s="78"/>
-      <c r="P1502" s="78"/>
-      <c r="Q1502" s="78"/>
-      <c r="R1502" s="78"/>
-      <c r="S1502" s="78"/>
-      <c r="T1502" s="78"/>
-      <c r="U1502" s="78"/>
-      <c r="V1502" s="78"/>
-      <c r="W1502" s="78"/>
-      <c r="X1502" s="78"/>
-      <c r="Y1502" s="78"/>
-      <c r="Z1502" s="78"/>
-      <c r="AA1502" s="78"/>
-      <c r="AB1502" s="78"/>
-      <c r="AC1502" s="78"/>
-      <c r="AD1502" s="78"/>
-      <c r="AE1502" s="78"/>
-      <c r="AF1502" s="78"/>
-      <c r="AG1502" s="78"/>
-      <c r="AH1502" s="78"/>
+      <c r="B1502" s="81"/>
+      <c r="C1502" s="81"/>
+      <c r="D1502" s="81"/>
+      <c r="E1502" s="81"/>
+      <c r="F1502" s="81"/>
+      <c r="G1502" s="81"/>
+      <c r="H1502" s="81"/>
+      <c r="I1502" s="81"/>
+      <c r="J1502" s="81"/>
+      <c r="K1502" s="81"/>
+      <c r="L1502" s="81"/>
+      <c r="M1502" s="81"/>
+      <c r="N1502" s="81"/>
+      <c r="O1502" s="81"/>
+      <c r="P1502" s="81"/>
+      <c r="Q1502" s="81"/>
+      <c r="R1502" s="81"/>
+      <c r="S1502" s="81"/>
+      <c r="T1502" s="81"/>
+      <c r="U1502" s="81"/>
+      <c r="V1502" s="81"/>
+      <c r="W1502" s="81"/>
+      <c r="X1502" s="81"/>
+      <c r="Y1502" s="81"/>
+      <c r="Z1502" s="81"/>
+      <c r="AA1502" s="81"/>
+      <c r="AB1502" s="81"/>
+      <c r="AC1502" s="81"/>
+      <c r="AD1502" s="81"/>
+      <c r="AE1502" s="81"/>
+      <c r="AF1502" s="81"/>
+      <c r="AG1502" s="81"/>
+      <c r="AH1502" s="81"/>
     </row>
     <row r="1503" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1504" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29340,39 +29341,39 @@
     <row r="1602" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1603" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1604" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1604" s="78"/>
-      <c r="C1604" s="78"/>
-      <c r="D1604" s="78"/>
-      <c r="E1604" s="78"/>
-      <c r="F1604" s="78"/>
-      <c r="G1604" s="78"/>
-      <c r="H1604" s="78"/>
-      <c r="I1604" s="78"/>
-      <c r="J1604" s="78"/>
-      <c r="K1604" s="78"/>
-      <c r="L1604" s="78"/>
-      <c r="M1604" s="78"/>
-      <c r="N1604" s="78"/>
-      <c r="O1604" s="78"/>
-      <c r="P1604" s="78"/>
-      <c r="Q1604" s="78"/>
-      <c r="R1604" s="78"/>
-      <c r="S1604" s="78"/>
-      <c r="T1604" s="78"/>
-      <c r="U1604" s="78"/>
-      <c r="V1604" s="78"/>
-      <c r="W1604" s="78"/>
-      <c r="X1604" s="78"/>
-      <c r="Y1604" s="78"/>
-      <c r="Z1604" s="78"/>
-      <c r="AA1604" s="78"/>
-      <c r="AB1604" s="78"/>
-      <c r="AC1604" s="78"/>
-      <c r="AD1604" s="78"/>
-      <c r="AE1604" s="78"/>
-      <c r="AF1604" s="78"/>
-      <c r="AG1604" s="78"/>
-      <c r="AH1604" s="78"/>
+      <c r="B1604" s="81"/>
+      <c r="C1604" s="81"/>
+      <c r="D1604" s="81"/>
+      <c r="E1604" s="81"/>
+      <c r="F1604" s="81"/>
+      <c r="G1604" s="81"/>
+      <c r="H1604" s="81"/>
+      <c r="I1604" s="81"/>
+      <c r="J1604" s="81"/>
+      <c r="K1604" s="81"/>
+      <c r="L1604" s="81"/>
+      <c r="M1604" s="81"/>
+      <c r="N1604" s="81"/>
+      <c r="O1604" s="81"/>
+      <c r="P1604" s="81"/>
+      <c r="Q1604" s="81"/>
+      <c r="R1604" s="81"/>
+      <c r="S1604" s="81"/>
+      <c r="T1604" s="81"/>
+      <c r="U1604" s="81"/>
+      <c r="V1604" s="81"/>
+      <c r="W1604" s="81"/>
+      <c r="X1604" s="81"/>
+      <c r="Y1604" s="81"/>
+      <c r="Z1604" s="81"/>
+      <c r="AA1604" s="81"/>
+      <c r="AB1604" s="81"/>
+      <c r="AC1604" s="81"/>
+      <c r="AD1604" s="81"/>
+      <c r="AE1604" s="81"/>
+      <c r="AF1604" s="81"/>
+      <c r="AG1604" s="81"/>
+      <c r="AH1604" s="81"/>
     </row>
     <row r="1605" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1606" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29468,39 +29469,39 @@
     <row r="1696" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1697" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1698" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1698" s="78"/>
-      <c r="C1698" s="78"/>
-      <c r="D1698" s="78"/>
-      <c r="E1698" s="78"/>
-      <c r="F1698" s="78"/>
-      <c r="G1698" s="78"/>
-      <c r="H1698" s="78"/>
-      <c r="I1698" s="78"/>
-      <c r="J1698" s="78"/>
-      <c r="K1698" s="78"/>
-      <c r="L1698" s="78"/>
-      <c r="M1698" s="78"/>
-      <c r="N1698" s="78"/>
-      <c r="O1698" s="78"/>
-      <c r="P1698" s="78"/>
-      <c r="Q1698" s="78"/>
-      <c r="R1698" s="78"/>
-      <c r="S1698" s="78"/>
-      <c r="T1698" s="78"/>
-      <c r="U1698" s="78"/>
-      <c r="V1698" s="78"/>
-      <c r="W1698" s="78"/>
-      <c r="X1698" s="78"/>
-      <c r="Y1698" s="78"/>
-      <c r="Z1698" s="78"/>
-      <c r="AA1698" s="78"/>
-      <c r="AB1698" s="78"/>
-      <c r="AC1698" s="78"/>
-      <c r="AD1698" s="78"/>
-      <c r="AE1698" s="78"/>
-      <c r="AF1698" s="78"/>
-      <c r="AG1698" s="78"/>
-      <c r="AH1698" s="78"/>
+      <c r="B1698" s="81"/>
+      <c r="C1698" s="81"/>
+      <c r="D1698" s="81"/>
+      <c r="E1698" s="81"/>
+      <c r="F1698" s="81"/>
+      <c r="G1698" s="81"/>
+      <c r="H1698" s="81"/>
+      <c r="I1698" s="81"/>
+      <c r="J1698" s="81"/>
+      <c r="K1698" s="81"/>
+      <c r="L1698" s="81"/>
+      <c r="M1698" s="81"/>
+      <c r="N1698" s="81"/>
+      <c r="O1698" s="81"/>
+      <c r="P1698" s="81"/>
+      <c r="Q1698" s="81"/>
+      <c r="R1698" s="81"/>
+      <c r="S1698" s="81"/>
+      <c r="T1698" s="81"/>
+      <c r="U1698" s="81"/>
+      <c r="V1698" s="81"/>
+      <c r="W1698" s="81"/>
+      <c r="X1698" s="81"/>
+      <c r="Y1698" s="81"/>
+      <c r="Z1698" s="81"/>
+      <c r="AA1698" s="81"/>
+      <c r="AB1698" s="81"/>
+      <c r="AC1698" s="81"/>
+      <c r="AD1698" s="81"/>
+      <c r="AE1698" s="81"/>
+      <c r="AF1698" s="81"/>
+      <c r="AG1698" s="81"/>
+      <c r="AH1698" s="81"/>
     </row>
     <row r="1699" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1700" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29749,39 +29750,39 @@
     <row r="1943" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1944" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1945" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1945" s="78"/>
-      <c r="C1945" s="78"/>
-      <c r="D1945" s="78"/>
-      <c r="E1945" s="78"/>
-      <c r="F1945" s="78"/>
-      <c r="G1945" s="78"/>
-      <c r="H1945" s="78"/>
-      <c r="I1945" s="78"/>
-      <c r="J1945" s="78"/>
-      <c r="K1945" s="78"/>
-      <c r="L1945" s="78"/>
-      <c r="M1945" s="78"/>
-      <c r="N1945" s="78"/>
-      <c r="O1945" s="78"/>
-      <c r="P1945" s="78"/>
-      <c r="Q1945" s="78"/>
-      <c r="R1945" s="78"/>
-      <c r="S1945" s="78"/>
-      <c r="T1945" s="78"/>
-      <c r="U1945" s="78"/>
-      <c r="V1945" s="78"/>
-      <c r="W1945" s="78"/>
-      <c r="X1945" s="78"/>
-      <c r="Y1945" s="78"/>
-      <c r="Z1945" s="78"/>
-      <c r="AA1945" s="78"/>
-      <c r="AB1945" s="78"/>
-      <c r="AC1945" s="78"/>
-      <c r="AD1945" s="78"/>
-      <c r="AE1945" s="78"/>
-      <c r="AF1945" s="78"/>
-      <c r="AG1945" s="78"/>
-      <c r="AH1945" s="78"/>
+      <c r="B1945" s="81"/>
+      <c r="C1945" s="81"/>
+      <c r="D1945" s="81"/>
+      <c r="E1945" s="81"/>
+      <c r="F1945" s="81"/>
+      <c r="G1945" s="81"/>
+      <c r="H1945" s="81"/>
+      <c r="I1945" s="81"/>
+      <c r="J1945" s="81"/>
+      <c r="K1945" s="81"/>
+      <c r="L1945" s="81"/>
+      <c r="M1945" s="81"/>
+      <c r="N1945" s="81"/>
+      <c r="O1945" s="81"/>
+      <c r="P1945" s="81"/>
+      <c r="Q1945" s="81"/>
+      <c r="R1945" s="81"/>
+      <c r="S1945" s="81"/>
+      <c r="T1945" s="81"/>
+      <c r="U1945" s="81"/>
+      <c r="V1945" s="81"/>
+      <c r="W1945" s="81"/>
+      <c r="X1945" s="81"/>
+      <c r="Y1945" s="81"/>
+      <c r="Z1945" s="81"/>
+      <c r="AA1945" s="81"/>
+      <c r="AB1945" s="81"/>
+      <c r="AC1945" s="81"/>
+      <c r="AD1945" s="81"/>
+      <c r="AE1945" s="81"/>
+      <c r="AF1945" s="81"/>
+      <c r="AG1945" s="81"/>
+      <c r="AH1945" s="81"/>
     </row>
     <row r="1946" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1947" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29869,39 +29870,39 @@
     <row r="2029" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2030" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2031" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2031" s="78"/>
-      <c r="C2031" s="78"/>
-      <c r="D2031" s="78"/>
-      <c r="E2031" s="78"/>
-      <c r="F2031" s="78"/>
-      <c r="G2031" s="78"/>
-      <c r="H2031" s="78"/>
-      <c r="I2031" s="78"/>
-      <c r="J2031" s="78"/>
-      <c r="K2031" s="78"/>
-      <c r="L2031" s="78"/>
-      <c r="M2031" s="78"/>
-      <c r="N2031" s="78"/>
-      <c r="O2031" s="78"/>
-      <c r="P2031" s="78"/>
-      <c r="Q2031" s="78"/>
-      <c r="R2031" s="78"/>
-      <c r="S2031" s="78"/>
-      <c r="T2031" s="78"/>
-      <c r="U2031" s="78"/>
-      <c r="V2031" s="78"/>
-      <c r="W2031" s="78"/>
-      <c r="X2031" s="78"/>
-      <c r="Y2031" s="78"/>
-      <c r="Z2031" s="78"/>
-      <c r="AA2031" s="78"/>
-      <c r="AB2031" s="78"/>
-      <c r="AC2031" s="78"/>
-      <c r="AD2031" s="78"/>
-      <c r="AE2031" s="78"/>
-      <c r="AF2031" s="78"/>
-      <c r="AG2031" s="78"/>
-      <c r="AH2031" s="78"/>
+      <c r="B2031" s="81"/>
+      <c r="C2031" s="81"/>
+      <c r="D2031" s="81"/>
+      <c r="E2031" s="81"/>
+      <c r="F2031" s="81"/>
+      <c r="G2031" s="81"/>
+      <c r="H2031" s="81"/>
+      <c r="I2031" s="81"/>
+      <c r="J2031" s="81"/>
+      <c r="K2031" s="81"/>
+      <c r="L2031" s="81"/>
+      <c r="M2031" s="81"/>
+      <c r="N2031" s="81"/>
+      <c r="O2031" s="81"/>
+      <c r="P2031" s="81"/>
+      <c r="Q2031" s="81"/>
+      <c r="R2031" s="81"/>
+      <c r="S2031" s="81"/>
+      <c r="T2031" s="81"/>
+      <c r="U2031" s="81"/>
+      <c r="V2031" s="81"/>
+      <c r="W2031" s="81"/>
+      <c r="X2031" s="81"/>
+      <c r="Y2031" s="81"/>
+      <c r="Z2031" s="81"/>
+      <c r="AA2031" s="81"/>
+      <c r="AB2031" s="81"/>
+      <c r="AC2031" s="81"/>
+      <c r="AD2031" s="81"/>
+      <c r="AE2031" s="81"/>
+      <c r="AF2031" s="81"/>
+      <c r="AG2031" s="81"/>
+      <c r="AH2031" s="81"/>
     </row>
     <row r="2032" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2033" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30025,39 +30026,39 @@
     <row r="2151" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2152" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2153" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2153" s="78"/>
-      <c r="C2153" s="78"/>
-      <c r="D2153" s="78"/>
-      <c r="E2153" s="78"/>
-      <c r="F2153" s="78"/>
-      <c r="G2153" s="78"/>
-      <c r="H2153" s="78"/>
-      <c r="I2153" s="78"/>
-      <c r="J2153" s="78"/>
-      <c r="K2153" s="78"/>
-      <c r="L2153" s="78"/>
-      <c r="M2153" s="78"/>
-      <c r="N2153" s="78"/>
-      <c r="O2153" s="78"/>
-      <c r="P2153" s="78"/>
-      <c r="Q2153" s="78"/>
-      <c r="R2153" s="78"/>
-      <c r="S2153" s="78"/>
-      <c r="T2153" s="78"/>
-      <c r="U2153" s="78"/>
-      <c r="V2153" s="78"/>
-      <c r="W2153" s="78"/>
-      <c r="X2153" s="78"/>
-      <c r="Y2153" s="78"/>
-      <c r="Z2153" s="78"/>
-      <c r="AA2153" s="78"/>
-      <c r="AB2153" s="78"/>
-      <c r="AC2153" s="78"/>
-      <c r="AD2153" s="78"/>
-      <c r="AE2153" s="78"/>
-      <c r="AF2153" s="78"/>
-      <c r="AG2153" s="78"/>
-      <c r="AH2153" s="78"/>
+      <c r="B2153" s="81"/>
+      <c r="C2153" s="81"/>
+      <c r="D2153" s="81"/>
+      <c r="E2153" s="81"/>
+      <c r="F2153" s="81"/>
+      <c r="G2153" s="81"/>
+      <c r="H2153" s="81"/>
+      <c r="I2153" s="81"/>
+      <c r="J2153" s="81"/>
+      <c r="K2153" s="81"/>
+      <c r="L2153" s="81"/>
+      <c r="M2153" s="81"/>
+      <c r="N2153" s="81"/>
+      <c r="O2153" s="81"/>
+      <c r="P2153" s="81"/>
+      <c r="Q2153" s="81"/>
+      <c r="R2153" s="81"/>
+      <c r="S2153" s="81"/>
+      <c r="T2153" s="81"/>
+      <c r="U2153" s="81"/>
+      <c r="V2153" s="81"/>
+      <c r="W2153" s="81"/>
+      <c r="X2153" s="81"/>
+      <c r="Y2153" s="81"/>
+      <c r="Z2153" s="81"/>
+      <c r="AA2153" s="81"/>
+      <c r="AB2153" s="81"/>
+      <c r="AC2153" s="81"/>
+      <c r="AD2153" s="81"/>
+      <c r="AE2153" s="81"/>
+      <c r="AF2153" s="81"/>
+      <c r="AG2153" s="81"/>
+      <c r="AH2153" s="81"/>
     </row>
     <row r="2154" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2155" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30223,39 +30224,39 @@
     <row r="2315" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2316" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2317" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2317" s="78"/>
-      <c r="C2317" s="78"/>
-      <c r="D2317" s="78"/>
-      <c r="E2317" s="78"/>
-      <c r="F2317" s="78"/>
-      <c r="G2317" s="78"/>
-      <c r="H2317" s="78"/>
-      <c r="I2317" s="78"/>
-      <c r="J2317" s="78"/>
-      <c r="K2317" s="78"/>
-      <c r="L2317" s="78"/>
-      <c r="M2317" s="78"/>
-      <c r="N2317" s="78"/>
-      <c r="O2317" s="78"/>
-      <c r="P2317" s="78"/>
-      <c r="Q2317" s="78"/>
-      <c r="R2317" s="78"/>
-      <c r="S2317" s="78"/>
-      <c r="T2317" s="78"/>
-      <c r="U2317" s="78"/>
-      <c r="V2317" s="78"/>
-      <c r="W2317" s="78"/>
-      <c r="X2317" s="78"/>
-      <c r="Y2317" s="78"/>
-      <c r="Z2317" s="78"/>
-      <c r="AA2317" s="78"/>
-      <c r="AB2317" s="78"/>
-      <c r="AC2317" s="78"/>
-      <c r="AD2317" s="78"/>
-      <c r="AE2317" s="78"/>
-      <c r="AF2317" s="78"/>
-      <c r="AG2317" s="78"/>
-      <c r="AH2317" s="78"/>
+      <c r="B2317" s="81"/>
+      <c r="C2317" s="81"/>
+      <c r="D2317" s="81"/>
+      <c r="E2317" s="81"/>
+      <c r="F2317" s="81"/>
+      <c r="G2317" s="81"/>
+      <c r="H2317" s="81"/>
+      <c r="I2317" s="81"/>
+      <c r="J2317" s="81"/>
+      <c r="K2317" s="81"/>
+      <c r="L2317" s="81"/>
+      <c r="M2317" s="81"/>
+      <c r="N2317" s="81"/>
+      <c r="O2317" s="81"/>
+      <c r="P2317" s="81"/>
+      <c r="Q2317" s="81"/>
+      <c r="R2317" s="81"/>
+      <c r="S2317" s="81"/>
+      <c r="T2317" s="81"/>
+      <c r="U2317" s="81"/>
+      <c r="V2317" s="81"/>
+      <c r="W2317" s="81"/>
+      <c r="X2317" s="81"/>
+      <c r="Y2317" s="81"/>
+      <c r="Z2317" s="81"/>
+      <c r="AA2317" s="81"/>
+      <c r="AB2317" s="81"/>
+      <c r="AC2317" s="81"/>
+      <c r="AD2317" s="81"/>
+      <c r="AE2317" s="81"/>
+      <c r="AF2317" s="81"/>
+      <c r="AG2317" s="81"/>
+      <c r="AH2317" s="81"/>
     </row>
     <row r="2318" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2319" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30359,39 +30360,39 @@
     <row r="2417" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2418" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2419" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2419" s="78"/>
-      <c r="C2419" s="78"/>
-      <c r="D2419" s="78"/>
-      <c r="E2419" s="78"/>
-      <c r="F2419" s="78"/>
-      <c r="G2419" s="78"/>
-      <c r="H2419" s="78"/>
-      <c r="I2419" s="78"/>
-      <c r="J2419" s="78"/>
-      <c r="K2419" s="78"/>
-      <c r="L2419" s="78"/>
-      <c r="M2419" s="78"/>
-      <c r="N2419" s="78"/>
-      <c r="O2419" s="78"/>
-      <c r="P2419" s="78"/>
-      <c r="Q2419" s="78"/>
-      <c r="R2419" s="78"/>
-      <c r="S2419" s="78"/>
-      <c r="T2419" s="78"/>
-      <c r="U2419" s="78"/>
-      <c r="V2419" s="78"/>
-      <c r="W2419" s="78"/>
-      <c r="X2419" s="78"/>
-      <c r="Y2419" s="78"/>
-      <c r="Z2419" s="78"/>
-      <c r="AA2419" s="78"/>
-      <c r="AB2419" s="78"/>
-      <c r="AC2419" s="78"/>
-      <c r="AD2419" s="78"/>
-      <c r="AE2419" s="78"/>
-      <c r="AF2419" s="78"/>
-      <c r="AG2419" s="78"/>
-      <c r="AH2419" s="78"/>
+      <c r="B2419" s="81"/>
+      <c r="C2419" s="81"/>
+      <c r="D2419" s="81"/>
+      <c r="E2419" s="81"/>
+      <c r="F2419" s="81"/>
+      <c r="G2419" s="81"/>
+      <c r="H2419" s="81"/>
+      <c r="I2419" s="81"/>
+      <c r="J2419" s="81"/>
+      <c r="K2419" s="81"/>
+      <c r="L2419" s="81"/>
+      <c r="M2419" s="81"/>
+      <c r="N2419" s="81"/>
+      <c r="O2419" s="81"/>
+      <c r="P2419" s="81"/>
+      <c r="Q2419" s="81"/>
+      <c r="R2419" s="81"/>
+      <c r="S2419" s="81"/>
+      <c r="T2419" s="81"/>
+      <c r="U2419" s="81"/>
+      <c r="V2419" s="81"/>
+      <c r="W2419" s="81"/>
+      <c r="X2419" s="81"/>
+      <c r="Y2419" s="81"/>
+      <c r="Z2419" s="81"/>
+      <c r="AA2419" s="81"/>
+      <c r="AB2419" s="81"/>
+      <c r="AC2419" s="81"/>
+      <c r="AD2419" s="81"/>
+      <c r="AE2419" s="81"/>
+      <c r="AF2419" s="81"/>
+      <c r="AG2419" s="81"/>
+      <c r="AH2419" s="81"/>
     </row>
     <row r="2420" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2421" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30483,39 +30484,39 @@
     <row r="2507" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2508" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2509" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2509" s="78"/>
-      <c r="C2509" s="78"/>
-      <c r="D2509" s="78"/>
-      <c r="E2509" s="78"/>
-      <c r="F2509" s="78"/>
-      <c r="G2509" s="78"/>
-      <c r="H2509" s="78"/>
-      <c r="I2509" s="78"/>
-      <c r="J2509" s="78"/>
-      <c r="K2509" s="78"/>
-      <c r="L2509" s="78"/>
-      <c r="M2509" s="78"/>
-      <c r="N2509" s="78"/>
-      <c r="O2509" s="78"/>
-      <c r="P2509" s="78"/>
-      <c r="Q2509" s="78"/>
-      <c r="R2509" s="78"/>
-      <c r="S2509" s="78"/>
-      <c r="T2509" s="78"/>
-      <c r="U2509" s="78"/>
-      <c r="V2509" s="78"/>
-      <c r="W2509" s="78"/>
-      <c r="X2509" s="78"/>
-      <c r="Y2509" s="78"/>
-      <c r="Z2509" s="78"/>
-      <c r="AA2509" s="78"/>
-      <c r="AB2509" s="78"/>
-      <c r="AC2509" s="78"/>
-      <c r="AD2509" s="78"/>
-      <c r="AE2509" s="78"/>
-      <c r="AF2509" s="78"/>
-      <c r="AG2509" s="78"/>
-      <c r="AH2509" s="78"/>
+      <c r="B2509" s="81"/>
+      <c r="C2509" s="81"/>
+      <c r="D2509" s="81"/>
+      <c r="E2509" s="81"/>
+      <c r="F2509" s="81"/>
+      <c r="G2509" s="81"/>
+      <c r="H2509" s="81"/>
+      <c r="I2509" s="81"/>
+      <c r="J2509" s="81"/>
+      <c r="K2509" s="81"/>
+      <c r="L2509" s="81"/>
+      <c r="M2509" s="81"/>
+      <c r="N2509" s="81"/>
+      <c r="O2509" s="81"/>
+      <c r="P2509" s="81"/>
+      <c r="Q2509" s="81"/>
+      <c r="R2509" s="81"/>
+      <c r="S2509" s="81"/>
+      <c r="T2509" s="81"/>
+      <c r="U2509" s="81"/>
+      <c r="V2509" s="81"/>
+      <c r="W2509" s="81"/>
+      <c r="X2509" s="81"/>
+      <c r="Y2509" s="81"/>
+      <c r="Z2509" s="81"/>
+      <c r="AA2509" s="81"/>
+      <c r="AB2509" s="81"/>
+      <c r="AC2509" s="81"/>
+      <c r="AD2509" s="81"/>
+      <c r="AE2509" s="81"/>
+      <c r="AF2509" s="81"/>
+      <c r="AG2509" s="81"/>
+      <c r="AH2509" s="81"/>
     </row>
     <row r="2510" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2511" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30606,39 +30607,39 @@
     <row r="2596" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2597" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2598" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2598" s="78"/>
-      <c r="C2598" s="78"/>
-      <c r="D2598" s="78"/>
-      <c r="E2598" s="78"/>
-      <c r="F2598" s="78"/>
-      <c r="G2598" s="78"/>
-      <c r="H2598" s="78"/>
-      <c r="I2598" s="78"/>
-      <c r="J2598" s="78"/>
-      <c r="K2598" s="78"/>
-      <c r="L2598" s="78"/>
-      <c r="M2598" s="78"/>
-      <c r="N2598" s="78"/>
-      <c r="O2598" s="78"/>
-      <c r="P2598" s="78"/>
-      <c r="Q2598" s="78"/>
-      <c r="R2598" s="78"/>
-      <c r="S2598" s="78"/>
-      <c r="T2598" s="78"/>
-      <c r="U2598" s="78"/>
-      <c r="V2598" s="78"/>
-      <c r="W2598" s="78"/>
-      <c r="X2598" s="78"/>
-      <c r="Y2598" s="78"/>
-      <c r="Z2598" s="78"/>
-      <c r="AA2598" s="78"/>
-      <c r="AB2598" s="78"/>
-      <c r="AC2598" s="78"/>
-      <c r="AD2598" s="78"/>
-      <c r="AE2598" s="78"/>
-      <c r="AF2598" s="78"/>
-      <c r="AG2598" s="78"/>
-      <c r="AH2598" s="78"/>
+      <c r="B2598" s="81"/>
+      <c r="C2598" s="81"/>
+      <c r="D2598" s="81"/>
+      <c r="E2598" s="81"/>
+      <c r="F2598" s="81"/>
+      <c r="G2598" s="81"/>
+      <c r="H2598" s="81"/>
+      <c r="I2598" s="81"/>
+      <c r="J2598" s="81"/>
+      <c r="K2598" s="81"/>
+      <c r="L2598" s="81"/>
+      <c r="M2598" s="81"/>
+      <c r="N2598" s="81"/>
+      <c r="O2598" s="81"/>
+      <c r="P2598" s="81"/>
+      <c r="Q2598" s="81"/>
+      <c r="R2598" s="81"/>
+      <c r="S2598" s="81"/>
+      <c r="T2598" s="81"/>
+      <c r="U2598" s="81"/>
+      <c r="V2598" s="81"/>
+      <c r="W2598" s="81"/>
+      <c r="X2598" s="81"/>
+      <c r="Y2598" s="81"/>
+      <c r="Z2598" s="81"/>
+      <c r="AA2598" s="81"/>
+      <c r="AB2598" s="81"/>
+      <c r="AC2598" s="81"/>
+      <c r="AD2598" s="81"/>
+      <c r="AE2598" s="81"/>
+      <c r="AF2598" s="81"/>
+      <c r="AG2598" s="81"/>
+      <c r="AH2598" s="81"/>
     </row>
     <row r="2599" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2600" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30761,39 +30762,39 @@
     <row r="2717" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2718" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2719" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2719" s="78"/>
-      <c r="C2719" s="78"/>
-      <c r="D2719" s="78"/>
-      <c r="E2719" s="78"/>
-      <c r="F2719" s="78"/>
-      <c r="G2719" s="78"/>
-      <c r="H2719" s="78"/>
-      <c r="I2719" s="78"/>
-      <c r="J2719" s="78"/>
-      <c r="K2719" s="78"/>
-      <c r="L2719" s="78"/>
-      <c r="M2719" s="78"/>
-      <c r="N2719" s="78"/>
-      <c r="O2719" s="78"/>
-      <c r="P2719" s="78"/>
-      <c r="Q2719" s="78"/>
-      <c r="R2719" s="78"/>
-      <c r="S2719" s="78"/>
-      <c r="T2719" s="78"/>
-      <c r="U2719" s="78"/>
-      <c r="V2719" s="78"/>
-      <c r="W2719" s="78"/>
-      <c r="X2719" s="78"/>
-      <c r="Y2719" s="78"/>
-      <c r="Z2719" s="78"/>
-      <c r="AA2719" s="78"/>
-      <c r="AB2719" s="78"/>
-      <c r="AC2719" s="78"/>
-      <c r="AD2719" s="78"/>
-      <c r="AE2719" s="78"/>
-      <c r="AF2719" s="78"/>
-      <c r="AG2719" s="78"/>
-      <c r="AH2719" s="78"/>
+      <c r="B2719" s="81"/>
+      <c r="C2719" s="81"/>
+      <c r="D2719" s="81"/>
+      <c r="E2719" s="81"/>
+      <c r="F2719" s="81"/>
+      <c r="G2719" s="81"/>
+      <c r="H2719" s="81"/>
+      <c r="I2719" s="81"/>
+      <c r="J2719" s="81"/>
+      <c r="K2719" s="81"/>
+      <c r="L2719" s="81"/>
+      <c r="M2719" s="81"/>
+      <c r="N2719" s="81"/>
+      <c r="O2719" s="81"/>
+      <c r="P2719" s="81"/>
+      <c r="Q2719" s="81"/>
+      <c r="R2719" s="81"/>
+      <c r="S2719" s="81"/>
+      <c r="T2719" s="81"/>
+      <c r="U2719" s="81"/>
+      <c r="V2719" s="81"/>
+      <c r="W2719" s="81"/>
+      <c r="X2719" s="81"/>
+      <c r="Y2719" s="81"/>
+      <c r="Z2719" s="81"/>
+      <c r="AA2719" s="81"/>
+      <c r="AB2719" s="81"/>
+      <c r="AC2719" s="81"/>
+      <c r="AD2719" s="81"/>
+      <c r="AE2719" s="81"/>
+      <c r="AF2719" s="81"/>
+      <c r="AG2719" s="81"/>
+      <c r="AH2719" s="81"/>
     </row>
     <row r="2720" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2721" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30913,63 +30914,63 @@
     <row r="2835" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2836" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2837" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2837" s="78"/>
-      <c r="C2837" s="78"/>
-      <c r="D2837" s="78"/>
-      <c r="E2837" s="78"/>
-      <c r="F2837" s="78"/>
-      <c r="G2837" s="78"/>
-      <c r="H2837" s="78"/>
-      <c r="I2837" s="78"/>
-      <c r="J2837" s="78"/>
-      <c r="K2837" s="78"/>
-      <c r="L2837" s="78"/>
-      <c r="M2837" s="78"/>
-      <c r="N2837" s="78"/>
-      <c r="O2837" s="78"/>
-      <c r="P2837" s="78"/>
-      <c r="Q2837" s="78"/>
-      <c r="R2837" s="78"/>
-      <c r="S2837" s="78"/>
-      <c r="T2837" s="78"/>
-      <c r="U2837" s="78"/>
-      <c r="V2837" s="78"/>
-      <c r="W2837" s="78"/>
-      <c r="X2837" s="78"/>
-      <c r="Y2837" s="78"/>
-      <c r="Z2837" s="78"/>
-      <c r="AA2837" s="78"/>
-      <c r="AB2837" s="78"/>
-      <c r="AC2837" s="78"/>
-      <c r="AD2837" s="78"/>
-      <c r="AE2837" s="78"/>
-      <c r="AF2837" s="78"/>
-      <c r="AG2837" s="78"/>
-      <c r="AH2837" s="78"/>
+      <c r="B2837" s="81"/>
+      <c r="C2837" s="81"/>
+      <c r="D2837" s="81"/>
+      <c r="E2837" s="81"/>
+      <c r="F2837" s="81"/>
+      <c r="G2837" s="81"/>
+      <c r="H2837" s="81"/>
+      <c r="I2837" s="81"/>
+      <c r="J2837" s="81"/>
+      <c r="K2837" s="81"/>
+      <c r="L2837" s="81"/>
+      <c r="M2837" s="81"/>
+      <c r="N2837" s="81"/>
+      <c r="O2837" s="81"/>
+      <c r="P2837" s="81"/>
+      <c r="Q2837" s="81"/>
+      <c r="R2837" s="81"/>
+      <c r="S2837" s="81"/>
+      <c r="T2837" s="81"/>
+      <c r="U2837" s="81"/>
+      <c r="V2837" s="81"/>
+      <c r="W2837" s="81"/>
+      <c r="X2837" s="81"/>
+      <c r="Y2837" s="81"/>
+      <c r="Z2837" s="81"/>
+      <c r="AA2837" s="81"/>
+      <c r="AB2837" s="81"/>
+      <c r="AC2837" s="81"/>
+      <c r="AD2837" s="81"/>
+      <c r="AE2837" s="81"/>
+      <c r="AF2837" s="81"/>
+      <c r="AG2837" s="81"/>
+      <c r="AH2837" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B100:AG100"/>
-    <mergeCell ref="B112:AH112"/>
-    <mergeCell ref="B308:AH308"/>
-    <mergeCell ref="B511:AH511"/>
-    <mergeCell ref="B712:AH712"/>
-    <mergeCell ref="B887:AH887"/>
-    <mergeCell ref="B1100:AH1100"/>
-    <mergeCell ref="B1227:AH1227"/>
-    <mergeCell ref="B1390:AH1390"/>
-    <mergeCell ref="B1502:AH1502"/>
-    <mergeCell ref="B1604:AH1604"/>
-    <mergeCell ref="B1698:AH1698"/>
-    <mergeCell ref="B1945:AH1945"/>
-    <mergeCell ref="B2031:AH2031"/>
-    <mergeCell ref="B2719:AH2719"/>
     <mergeCell ref="B2837:AH2837"/>
     <mergeCell ref="B2153:AH2153"/>
     <mergeCell ref="B2317:AH2317"/>
     <mergeCell ref="B2419:AH2419"/>
     <mergeCell ref="B2509:AH2509"/>
     <mergeCell ref="B2598:AH2598"/>
+    <mergeCell ref="B1604:AH1604"/>
+    <mergeCell ref="B1698:AH1698"/>
+    <mergeCell ref="B1945:AH1945"/>
+    <mergeCell ref="B2031:AH2031"/>
+    <mergeCell ref="B2719:AH2719"/>
+    <mergeCell ref="B887:AH887"/>
+    <mergeCell ref="B1100:AH1100"/>
+    <mergeCell ref="B1227:AH1227"/>
+    <mergeCell ref="B1390:AH1390"/>
+    <mergeCell ref="B1502:AH1502"/>
+    <mergeCell ref="B100:AG100"/>
+    <mergeCell ref="B112:AH112"/>
+    <mergeCell ref="B308:AH308"/>
+    <mergeCell ref="B511:AH511"/>
+    <mergeCell ref="B712:AH712"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -37234,39 +37235,39 @@
       </c>
     </row>
     <row r="112" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="78"/>
-      <c r="C112" s="78"/>
-      <c r="D112" s="78"/>
-      <c r="E112" s="78"/>
-      <c r="F112" s="78"/>
-      <c r="G112" s="78"/>
-      <c r="H112" s="78"/>
-      <c r="I112" s="78"/>
-      <c r="J112" s="78"/>
-      <c r="K112" s="78"/>
-      <c r="L112" s="78"/>
-      <c r="M112" s="78"/>
-      <c r="N112" s="78"/>
-      <c r="O112" s="78"/>
-      <c r="P112" s="78"/>
-      <c r="Q112" s="78"/>
-      <c r="R112" s="78"/>
-      <c r="S112" s="78"/>
-      <c r="T112" s="78"/>
-      <c r="U112" s="78"/>
-      <c r="V112" s="78"/>
-      <c r="W112" s="78"/>
-      <c r="X112" s="78"/>
-      <c r="Y112" s="78"/>
-      <c r="Z112" s="78"/>
-      <c r="AA112" s="78"/>
-      <c r="AB112" s="78"/>
-      <c r="AC112" s="78"/>
-      <c r="AD112" s="78"/>
-      <c r="AE112" s="78"/>
-      <c r="AF112" s="78"/>
-      <c r="AG112" s="78"/>
-      <c r="AH112" s="78"/>
+      <c r="B112" s="81"/>
+      <c r="C112" s="81"/>
+      <c r="D112" s="81"/>
+      <c r="E112" s="81"/>
+      <c r="F112" s="81"/>
+      <c r="G112" s="81"/>
+      <c r="H112" s="81"/>
+      <c r="I112" s="81"/>
+      <c r="J112" s="81"/>
+      <c r="K112" s="81"/>
+      <c r="L112" s="81"/>
+      <c r="M112" s="81"/>
+      <c r="N112" s="81"/>
+      <c r="O112" s="81"/>
+      <c r="P112" s="81"/>
+      <c r="Q112" s="81"/>
+      <c r="R112" s="81"/>
+      <c r="S112" s="81"/>
+      <c r="T112" s="81"/>
+      <c r="U112" s="81"/>
+      <c r="V112" s="81"/>
+      <c r="W112" s="81"/>
+      <c r="X112" s="81"/>
+      <c r="Y112" s="81"/>
+      <c r="Z112" s="81"/>
+      <c r="AA112" s="81"/>
+      <c r="AB112" s="81"/>
+      <c r="AC112" s="81"/>
+      <c r="AD112" s="81"/>
+      <c r="AE112" s="81"/>
+      <c r="AF112" s="81"/>
+      <c r="AG112" s="81"/>
+      <c r="AH112" s="81"/>
     </row>
     <row r="113" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="114" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -37449,39 +37450,39 @@
     <row r="306" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="307" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="308" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B308" s="78"/>
-      <c r="C308" s="78"/>
-      <c r="D308" s="78"/>
-      <c r="E308" s="78"/>
-      <c r="F308" s="78"/>
-      <c r="G308" s="78"/>
-      <c r="H308" s="78"/>
-      <c r="I308" s="78"/>
-      <c r="J308" s="78"/>
-      <c r="K308" s="78"/>
-      <c r="L308" s="78"/>
-      <c r="M308" s="78"/>
-      <c r="N308" s="78"/>
-      <c r="O308" s="78"/>
-      <c r="P308" s="78"/>
-      <c r="Q308" s="78"/>
-      <c r="R308" s="78"/>
-      <c r="S308" s="78"/>
-      <c r="T308" s="78"/>
-      <c r="U308" s="78"/>
-      <c r="V308" s="78"/>
-      <c r="W308" s="78"/>
-      <c r="X308" s="78"/>
-      <c r="Y308" s="78"/>
-      <c r="Z308" s="78"/>
-      <c r="AA308" s="78"/>
-      <c r="AB308" s="78"/>
-      <c r="AC308" s="78"/>
-      <c r="AD308" s="78"/>
-      <c r="AE308" s="78"/>
-      <c r="AF308" s="78"/>
-      <c r="AG308" s="78"/>
-      <c r="AH308" s="78"/>
+      <c r="B308" s="81"/>
+      <c r="C308" s="81"/>
+      <c r="D308" s="81"/>
+      <c r="E308" s="81"/>
+      <c r="F308" s="81"/>
+      <c r="G308" s="81"/>
+      <c r="H308" s="81"/>
+      <c r="I308" s="81"/>
+      <c r="J308" s="81"/>
+      <c r="K308" s="81"/>
+      <c r="L308" s="81"/>
+      <c r="M308" s="81"/>
+      <c r="N308" s="81"/>
+      <c r="O308" s="81"/>
+      <c r="P308" s="81"/>
+      <c r="Q308" s="81"/>
+      <c r="R308" s="81"/>
+      <c r="S308" s="81"/>
+      <c r="T308" s="81"/>
+      <c r="U308" s="81"/>
+      <c r="V308" s="81"/>
+      <c r="W308" s="81"/>
+      <c r="X308" s="81"/>
+      <c r="Y308" s="81"/>
+      <c r="Z308" s="81"/>
+      <c r="AA308" s="81"/>
+      <c r="AB308" s="81"/>
+      <c r="AC308" s="81"/>
+      <c r="AD308" s="81"/>
+      <c r="AE308" s="81"/>
+      <c r="AF308" s="81"/>
+      <c r="AG308" s="81"/>
+      <c r="AH308" s="81"/>
     </row>
     <row r="309" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="310" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -37686,39 +37687,39 @@
     <row r="509" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="510" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="511" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B511" s="78"/>
-      <c r="C511" s="78"/>
-      <c r="D511" s="78"/>
-      <c r="E511" s="78"/>
-      <c r="F511" s="78"/>
-      <c r="G511" s="78"/>
-      <c r="H511" s="78"/>
-      <c r="I511" s="78"/>
-      <c r="J511" s="78"/>
-      <c r="K511" s="78"/>
-      <c r="L511" s="78"/>
-      <c r="M511" s="78"/>
-      <c r="N511" s="78"/>
-      <c r="O511" s="78"/>
-      <c r="P511" s="78"/>
-      <c r="Q511" s="78"/>
-      <c r="R511" s="78"/>
-      <c r="S511" s="78"/>
-      <c r="T511" s="78"/>
-      <c r="U511" s="78"/>
-      <c r="V511" s="78"/>
-      <c r="W511" s="78"/>
-      <c r="X511" s="78"/>
-      <c r="Y511" s="78"/>
-      <c r="Z511" s="78"/>
-      <c r="AA511" s="78"/>
-      <c r="AB511" s="78"/>
-      <c r="AC511" s="78"/>
-      <c r="AD511" s="78"/>
-      <c r="AE511" s="78"/>
-      <c r="AF511" s="78"/>
-      <c r="AG511" s="78"/>
-      <c r="AH511" s="78"/>
+      <c r="B511" s="81"/>
+      <c r="C511" s="81"/>
+      <c r="D511" s="81"/>
+      <c r="E511" s="81"/>
+      <c r="F511" s="81"/>
+      <c r="G511" s="81"/>
+      <c r="H511" s="81"/>
+      <c r="I511" s="81"/>
+      <c r="J511" s="81"/>
+      <c r="K511" s="81"/>
+      <c r="L511" s="81"/>
+      <c r="M511" s="81"/>
+      <c r="N511" s="81"/>
+      <c r="O511" s="81"/>
+      <c r="P511" s="81"/>
+      <c r="Q511" s="81"/>
+      <c r="R511" s="81"/>
+      <c r="S511" s="81"/>
+      <c r="T511" s="81"/>
+      <c r="U511" s="81"/>
+      <c r="V511" s="81"/>
+      <c r="W511" s="81"/>
+      <c r="X511" s="81"/>
+      <c r="Y511" s="81"/>
+      <c r="Z511" s="81"/>
+      <c r="AA511" s="81"/>
+      <c r="AB511" s="81"/>
+      <c r="AC511" s="81"/>
+      <c r="AD511" s="81"/>
+      <c r="AE511" s="81"/>
+      <c r="AF511" s="81"/>
+      <c r="AG511" s="81"/>
+      <c r="AH511" s="81"/>
     </row>
     <row r="512" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="513" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -37921,39 +37922,39 @@
     <row r="710" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="711" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="712" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B712" s="78"/>
-      <c r="C712" s="78"/>
-      <c r="D712" s="78"/>
-      <c r="E712" s="78"/>
-      <c r="F712" s="78"/>
-      <c r="G712" s="78"/>
-      <c r="H712" s="78"/>
-      <c r="I712" s="78"/>
-      <c r="J712" s="78"/>
-      <c r="K712" s="78"/>
-      <c r="L712" s="78"/>
-      <c r="M712" s="78"/>
-      <c r="N712" s="78"/>
-      <c r="O712" s="78"/>
-      <c r="P712" s="78"/>
-      <c r="Q712" s="78"/>
-      <c r="R712" s="78"/>
-      <c r="S712" s="78"/>
-      <c r="T712" s="78"/>
-      <c r="U712" s="78"/>
-      <c r="V712" s="78"/>
-      <c r="W712" s="78"/>
-      <c r="X712" s="78"/>
-      <c r="Y712" s="78"/>
-      <c r="Z712" s="78"/>
-      <c r="AA712" s="78"/>
-      <c r="AB712" s="78"/>
-      <c r="AC712" s="78"/>
-      <c r="AD712" s="78"/>
-      <c r="AE712" s="78"/>
-      <c r="AF712" s="78"/>
-      <c r="AG712" s="78"/>
-      <c r="AH712" s="78"/>
+      <c r="B712" s="81"/>
+      <c r="C712" s="81"/>
+      <c r="D712" s="81"/>
+      <c r="E712" s="81"/>
+      <c r="F712" s="81"/>
+      <c r="G712" s="81"/>
+      <c r="H712" s="81"/>
+      <c r="I712" s="81"/>
+      <c r="J712" s="81"/>
+      <c r="K712" s="81"/>
+      <c r="L712" s="81"/>
+      <c r="M712" s="81"/>
+      <c r="N712" s="81"/>
+      <c r="O712" s="81"/>
+      <c r="P712" s="81"/>
+      <c r="Q712" s="81"/>
+      <c r="R712" s="81"/>
+      <c r="S712" s="81"/>
+      <c r="T712" s="81"/>
+      <c r="U712" s="81"/>
+      <c r="V712" s="81"/>
+      <c r="W712" s="81"/>
+      <c r="X712" s="81"/>
+      <c r="Y712" s="81"/>
+      <c r="Z712" s="81"/>
+      <c r="AA712" s="81"/>
+      <c r="AB712" s="81"/>
+      <c r="AC712" s="81"/>
+      <c r="AD712" s="81"/>
+      <c r="AE712" s="81"/>
+      <c r="AF712" s="81"/>
+      <c r="AG712" s="81"/>
+      <c r="AH712" s="81"/>
     </row>
     <row r="713" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="714" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -38130,39 +38131,39 @@
     <row r="885" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="886" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="887" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B887" s="78"/>
-      <c r="C887" s="78"/>
-      <c r="D887" s="78"/>
-      <c r="E887" s="78"/>
-      <c r="F887" s="78"/>
-      <c r="G887" s="78"/>
-      <c r="H887" s="78"/>
-      <c r="I887" s="78"/>
-      <c r="J887" s="78"/>
-      <c r="K887" s="78"/>
-      <c r="L887" s="78"/>
-      <c r="M887" s="78"/>
-      <c r="N887" s="78"/>
-      <c r="O887" s="78"/>
-      <c r="P887" s="78"/>
-      <c r="Q887" s="78"/>
-      <c r="R887" s="78"/>
-      <c r="S887" s="78"/>
-      <c r="T887" s="78"/>
-      <c r="U887" s="78"/>
-      <c r="V887" s="78"/>
-      <c r="W887" s="78"/>
-      <c r="X887" s="78"/>
-      <c r="Y887" s="78"/>
-      <c r="Z887" s="78"/>
-      <c r="AA887" s="78"/>
-      <c r="AB887" s="78"/>
-      <c r="AC887" s="78"/>
-      <c r="AD887" s="78"/>
-      <c r="AE887" s="78"/>
-      <c r="AF887" s="78"/>
-      <c r="AG887" s="78"/>
-      <c r="AH887" s="78"/>
+      <c r="B887" s="81"/>
+      <c r="C887" s="81"/>
+      <c r="D887" s="81"/>
+      <c r="E887" s="81"/>
+      <c r="F887" s="81"/>
+      <c r="G887" s="81"/>
+      <c r="H887" s="81"/>
+      <c r="I887" s="81"/>
+      <c r="J887" s="81"/>
+      <c r="K887" s="81"/>
+      <c r="L887" s="81"/>
+      <c r="M887" s="81"/>
+      <c r="N887" s="81"/>
+      <c r="O887" s="81"/>
+      <c r="P887" s="81"/>
+      <c r="Q887" s="81"/>
+      <c r="R887" s="81"/>
+      <c r="S887" s="81"/>
+      <c r="T887" s="81"/>
+      <c r="U887" s="81"/>
+      <c r="V887" s="81"/>
+      <c r="W887" s="81"/>
+      <c r="X887" s="81"/>
+      <c r="Y887" s="81"/>
+      <c r="Z887" s="81"/>
+      <c r="AA887" s="81"/>
+      <c r="AB887" s="81"/>
+      <c r="AC887" s="81"/>
+      <c r="AD887" s="81"/>
+      <c r="AE887" s="81"/>
+      <c r="AF887" s="81"/>
+      <c r="AG887" s="81"/>
+      <c r="AH887" s="81"/>
     </row>
     <row r="888" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="889" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -38377,39 +38378,39 @@
     <row r="1098" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1099" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1100" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1100" s="78"/>
-      <c r="C1100" s="78"/>
-      <c r="D1100" s="78"/>
-      <c r="E1100" s="78"/>
-      <c r="F1100" s="78"/>
-      <c r="G1100" s="78"/>
-      <c r="H1100" s="78"/>
-      <c r="I1100" s="78"/>
-      <c r="J1100" s="78"/>
-      <c r="K1100" s="78"/>
-      <c r="L1100" s="78"/>
-      <c r="M1100" s="78"/>
-      <c r="N1100" s="78"/>
-      <c r="O1100" s="78"/>
-      <c r="P1100" s="78"/>
-      <c r="Q1100" s="78"/>
-      <c r="R1100" s="78"/>
-      <c r="S1100" s="78"/>
-      <c r="T1100" s="78"/>
-      <c r="U1100" s="78"/>
-      <c r="V1100" s="78"/>
-      <c r="W1100" s="78"/>
-      <c r="X1100" s="78"/>
-      <c r="Y1100" s="78"/>
-      <c r="Z1100" s="78"/>
-      <c r="AA1100" s="78"/>
-      <c r="AB1100" s="78"/>
-      <c r="AC1100" s="78"/>
-      <c r="AD1100" s="78"/>
-      <c r="AE1100" s="78"/>
-      <c r="AF1100" s="78"/>
-      <c r="AG1100" s="78"/>
-      <c r="AH1100" s="78"/>
+      <c r="B1100" s="81"/>
+      <c r="C1100" s="81"/>
+      <c r="D1100" s="81"/>
+      <c r="E1100" s="81"/>
+      <c r="F1100" s="81"/>
+      <c r="G1100" s="81"/>
+      <c r="H1100" s="81"/>
+      <c r="I1100" s="81"/>
+      <c r="J1100" s="81"/>
+      <c r="K1100" s="81"/>
+      <c r="L1100" s="81"/>
+      <c r="M1100" s="81"/>
+      <c r="N1100" s="81"/>
+      <c r="O1100" s="81"/>
+      <c r="P1100" s="81"/>
+      <c r="Q1100" s="81"/>
+      <c r="R1100" s="81"/>
+      <c r="S1100" s="81"/>
+      <c r="T1100" s="81"/>
+      <c r="U1100" s="81"/>
+      <c r="V1100" s="81"/>
+      <c r="W1100" s="81"/>
+      <c r="X1100" s="81"/>
+      <c r="Y1100" s="81"/>
+      <c r="Z1100" s="81"/>
+      <c r="AA1100" s="81"/>
+      <c r="AB1100" s="81"/>
+      <c r="AC1100" s="81"/>
+      <c r="AD1100" s="81"/>
+      <c r="AE1100" s="81"/>
+      <c r="AF1100" s="81"/>
+      <c r="AG1100" s="81"/>
+      <c r="AH1100" s="81"/>
     </row>
     <row r="1101" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1102" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -38538,39 +38539,39 @@
     <row r="1225" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1226" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1227" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1227" s="78"/>
-      <c r="C1227" s="78"/>
-      <c r="D1227" s="78"/>
-      <c r="E1227" s="78"/>
-      <c r="F1227" s="78"/>
-      <c r="G1227" s="78"/>
-      <c r="H1227" s="78"/>
-      <c r="I1227" s="78"/>
-      <c r="J1227" s="78"/>
-      <c r="K1227" s="78"/>
-      <c r="L1227" s="78"/>
-      <c r="M1227" s="78"/>
-      <c r="N1227" s="78"/>
-      <c r="O1227" s="78"/>
-      <c r="P1227" s="78"/>
-      <c r="Q1227" s="78"/>
-      <c r="R1227" s="78"/>
-      <c r="S1227" s="78"/>
-      <c r="T1227" s="78"/>
-      <c r="U1227" s="78"/>
-      <c r="V1227" s="78"/>
-      <c r="W1227" s="78"/>
-      <c r="X1227" s="78"/>
-      <c r="Y1227" s="78"/>
-      <c r="Z1227" s="78"/>
-      <c r="AA1227" s="78"/>
-      <c r="AB1227" s="78"/>
-      <c r="AC1227" s="78"/>
-      <c r="AD1227" s="78"/>
-      <c r="AE1227" s="78"/>
-      <c r="AF1227" s="78"/>
-      <c r="AG1227" s="78"/>
-      <c r="AH1227" s="78"/>
+      <c r="B1227" s="81"/>
+      <c r="C1227" s="81"/>
+      <c r="D1227" s="81"/>
+      <c r="E1227" s="81"/>
+      <c r="F1227" s="81"/>
+      <c r="G1227" s="81"/>
+      <c r="H1227" s="81"/>
+      <c r="I1227" s="81"/>
+      <c r="J1227" s="81"/>
+      <c r="K1227" s="81"/>
+      <c r="L1227" s="81"/>
+      <c r="M1227" s="81"/>
+      <c r="N1227" s="81"/>
+      <c r="O1227" s="81"/>
+      <c r="P1227" s="81"/>
+      <c r="Q1227" s="81"/>
+      <c r="R1227" s="81"/>
+      <c r="S1227" s="81"/>
+      <c r="T1227" s="81"/>
+      <c r="U1227" s="81"/>
+      <c r="V1227" s="81"/>
+      <c r="W1227" s="81"/>
+      <c r="X1227" s="81"/>
+      <c r="Y1227" s="81"/>
+      <c r="Z1227" s="81"/>
+      <c r="AA1227" s="81"/>
+      <c r="AB1227" s="81"/>
+      <c r="AC1227" s="81"/>
+      <c r="AD1227" s="81"/>
+      <c r="AE1227" s="81"/>
+      <c r="AF1227" s="81"/>
+      <c r="AG1227" s="81"/>
+      <c r="AH1227" s="81"/>
     </row>
     <row r="1228" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1229" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -38735,39 +38736,39 @@
     <row r="1388" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1389" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1390" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1390" s="78"/>
-      <c r="C1390" s="78"/>
-      <c r="D1390" s="78"/>
-      <c r="E1390" s="78"/>
-      <c r="F1390" s="78"/>
-      <c r="G1390" s="78"/>
-      <c r="H1390" s="78"/>
-      <c r="I1390" s="78"/>
-      <c r="J1390" s="78"/>
-      <c r="K1390" s="78"/>
-      <c r="L1390" s="78"/>
-      <c r="M1390" s="78"/>
-      <c r="N1390" s="78"/>
-      <c r="O1390" s="78"/>
-      <c r="P1390" s="78"/>
-      <c r="Q1390" s="78"/>
-      <c r="R1390" s="78"/>
-      <c r="S1390" s="78"/>
-      <c r="T1390" s="78"/>
-      <c r="U1390" s="78"/>
-      <c r="V1390" s="78"/>
-      <c r="W1390" s="78"/>
-      <c r="X1390" s="78"/>
-      <c r="Y1390" s="78"/>
-      <c r="Z1390" s="78"/>
-      <c r="AA1390" s="78"/>
-      <c r="AB1390" s="78"/>
-      <c r="AC1390" s="78"/>
-      <c r="AD1390" s="78"/>
-      <c r="AE1390" s="78"/>
-      <c r="AF1390" s="78"/>
-      <c r="AG1390" s="78"/>
-      <c r="AH1390" s="78"/>
+      <c r="B1390" s="81"/>
+      <c r="C1390" s="81"/>
+      <c r="D1390" s="81"/>
+      <c r="E1390" s="81"/>
+      <c r="F1390" s="81"/>
+      <c r="G1390" s="81"/>
+      <c r="H1390" s="81"/>
+      <c r="I1390" s="81"/>
+      <c r="J1390" s="81"/>
+      <c r="K1390" s="81"/>
+      <c r="L1390" s="81"/>
+      <c r="M1390" s="81"/>
+      <c r="N1390" s="81"/>
+      <c r="O1390" s="81"/>
+      <c r="P1390" s="81"/>
+      <c r="Q1390" s="81"/>
+      <c r="R1390" s="81"/>
+      <c r="S1390" s="81"/>
+      <c r="T1390" s="81"/>
+      <c r="U1390" s="81"/>
+      <c r="V1390" s="81"/>
+      <c r="W1390" s="81"/>
+      <c r="X1390" s="81"/>
+      <c r="Y1390" s="81"/>
+      <c r="Z1390" s="81"/>
+      <c r="AA1390" s="81"/>
+      <c r="AB1390" s="81"/>
+      <c r="AC1390" s="81"/>
+      <c r="AD1390" s="81"/>
+      <c r="AE1390" s="81"/>
+      <c r="AF1390" s="81"/>
+      <c r="AG1390" s="81"/>
+      <c r="AH1390" s="81"/>
     </row>
     <row r="1391" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1392" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -38881,39 +38882,39 @@
     <row r="1500" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1501" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1502" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1502" s="78"/>
-      <c r="C1502" s="78"/>
-      <c r="D1502" s="78"/>
-      <c r="E1502" s="78"/>
-      <c r="F1502" s="78"/>
-      <c r="G1502" s="78"/>
-      <c r="H1502" s="78"/>
-      <c r="I1502" s="78"/>
-      <c r="J1502" s="78"/>
-      <c r="K1502" s="78"/>
-      <c r="L1502" s="78"/>
-      <c r="M1502" s="78"/>
-      <c r="N1502" s="78"/>
-      <c r="O1502" s="78"/>
-      <c r="P1502" s="78"/>
-      <c r="Q1502" s="78"/>
-      <c r="R1502" s="78"/>
-      <c r="S1502" s="78"/>
-      <c r="T1502" s="78"/>
-      <c r="U1502" s="78"/>
-      <c r="V1502" s="78"/>
-      <c r="W1502" s="78"/>
-      <c r="X1502" s="78"/>
-      <c r="Y1502" s="78"/>
-      <c r="Z1502" s="78"/>
-      <c r="AA1502" s="78"/>
-      <c r="AB1502" s="78"/>
-      <c r="AC1502" s="78"/>
-      <c r="AD1502" s="78"/>
-      <c r="AE1502" s="78"/>
-      <c r="AF1502" s="78"/>
-      <c r="AG1502" s="78"/>
-      <c r="AH1502" s="78"/>
+      <c r="B1502" s="81"/>
+      <c r="C1502" s="81"/>
+      <c r="D1502" s="81"/>
+      <c r="E1502" s="81"/>
+      <c r="F1502" s="81"/>
+      <c r="G1502" s="81"/>
+      <c r="H1502" s="81"/>
+      <c r="I1502" s="81"/>
+      <c r="J1502" s="81"/>
+      <c r="K1502" s="81"/>
+      <c r="L1502" s="81"/>
+      <c r="M1502" s="81"/>
+      <c r="N1502" s="81"/>
+      <c r="O1502" s="81"/>
+      <c r="P1502" s="81"/>
+      <c r="Q1502" s="81"/>
+      <c r="R1502" s="81"/>
+      <c r="S1502" s="81"/>
+      <c r="T1502" s="81"/>
+      <c r="U1502" s="81"/>
+      <c r="V1502" s="81"/>
+      <c r="W1502" s="81"/>
+      <c r="X1502" s="81"/>
+      <c r="Y1502" s="81"/>
+      <c r="Z1502" s="81"/>
+      <c r="AA1502" s="81"/>
+      <c r="AB1502" s="81"/>
+      <c r="AC1502" s="81"/>
+      <c r="AD1502" s="81"/>
+      <c r="AE1502" s="81"/>
+      <c r="AF1502" s="81"/>
+      <c r="AG1502" s="81"/>
+      <c r="AH1502" s="81"/>
     </row>
     <row r="1503" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1504" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -39017,39 +39018,39 @@
     <row r="1602" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1603" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1604" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1604" s="78"/>
-      <c r="C1604" s="78"/>
-      <c r="D1604" s="78"/>
-      <c r="E1604" s="78"/>
-      <c r="F1604" s="78"/>
-      <c r="G1604" s="78"/>
-      <c r="H1604" s="78"/>
-      <c r="I1604" s="78"/>
-      <c r="J1604" s="78"/>
-      <c r="K1604" s="78"/>
-      <c r="L1604" s="78"/>
-      <c r="M1604" s="78"/>
-      <c r="N1604" s="78"/>
-      <c r="O1604" s="78"/>
-      <c r="P1604" s="78"/>
-      <c r="Q1604" s="78"/>
-      <c r="R1604" s="78"/>
-      <c r="S1604" s="78"/>
-      <c r="T1604" s="78"/>
-      <c r="U1604" s="78"/>
-      <c r="V1604" s="78"/>
-      <c r="W1604" s="78"/>
-      <c r="X1604" s="78"/>
-      <c r="Y1604" s="78"/>
-      <c r="Z1604" s="78"/>
-      <c r="AA1604" s="78"/>
-      <c r="AB1604" s="78"/>
-      <c r="AC1604" s="78"/>
-      <c r="AD1604" s="78"/>
-      <c r="AE1604" s="78"/>
-      <c r="AF1604" s="78"/>
-      <c r="AG1604" s="78"/>
-      <c r="AH1604" s="78"/>
+      <c r="B1604" s="81"/>
+      <c r="C1604" s="81"/>
+      <c r="D1604" s="81"/>
+      <c r="E1604" s="81"/>
+      <c r="F1604" s="81"/>
+      <c r="G1604" s="81"/>
+      <c r="H1604" s="81"/>
+      <c r="I1604" s="81"/>
+      <c r="J1604" s="81"/>
+      <c r="K1604" s="81"/>
+      <c r="L1604" s="81"/>
+      <c r="M1604" s="81"/>
+      <c r="N1604" s="81"/>
+      <c r="O1604" s="81"/>
+      <c r="P1604" s="81"/>
+      <c r="Q1604" s="81"/>
+      <c r="R1604" s="81"/>
+      <c r="S1604" s="81"/>
+      <c r="T1604" s="81"/>
+      <c r="U1604" s="81"/>
+      <c r="V1604" s="81"/>
+      <c r="W1604" s="81"/>
+      <c r="X1604" s="81"/>
+      <c r="Y1604" s="81"/>
+      <c r="Z1604" s="81"/>
+      <c r="AA1604" s="81"/>
+      <c r="AB1604" s="81"/>
+      <c r="AC1604" s="81"/>
+      <c r="AD1604" s="81"/>
+      <c r="AE1604" s="81"/>
+      <c r="AF1604" s="81"/>
+      <c r="AG1604" s="81"/>
+      <c r="AH1604" s="81"/>
     </row>
     <row r="1605" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1606" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -39145,39 +39146,39 @@
     <row r="1696" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1697" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1698" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1698" s="78"/>
-      <c r="C1698" s="78"/>
-      <c r="D1698" s="78"/>
-      <c r="E1698" s="78"/>
-      <c r="F1698" s="78"/>
-      <c r="G1698" s="78"/>
-      <c r="H1698" s="78"/>
-      <c r="I1698" s="78"/>
-      <c r="J1698" s="78"/>
-      <c r="K1698" s="78"/>
-      <c r="L1698" s="78"/>
-      <c r="M1698" s="78"/>
-      <c r="N1698" s="78"/>
-      <c r="O1698" s="78"/>
-      <c r="P1698" s="78"/>
-      <c r="Q1698" s="78"/>
-      <c r="R1698" s="78"/>
-      <c r="S1698" s="78"/>
-      <c r="T1698" s="78"/>
-      <c r="U1698" s="78"/>
-      <c r="V1698" s="78"/>
-      <c r="W1698" s="78"/>
-      <c r="X1698" s="78"/>
-      <c r="Y1698" s="78"/>
-      <c r="Z1698" s="78"/>
-      <c r="AA1698" s="78"/>
-      <c r="AB1698" s="78"/>
-      <c r="AC1698" s="78"/>
-      <c r="AD1698" s="78"/>
-      <c r="AE1698" s="78"/>
-      <c r="AF1698" s="78"/>
-      <c r="AG1698" s="78"/>
-      <c r="AH1698" s="78"/>
+      <c r="B1698" s="81"/>
+      <c r="C1698" s="81"/>
+      <c r="D1698" s="81"/>
+      <c r="E1698" s="81"/>
+      <c r="F1698" s="81"/>
+      <c r="G1698" s="81"/>
+      <c r="H1698" s="81"/>
+      <c r="I1698" s="81"/>
+      <c r="J1698" s="81"/>
+      <c r="K1698" s="81"/>
+      <c r="L1698" s="81"/>
+      <c r="M1698" s="81"/>
+      <c r="N1698" s="81"/>
+      <c r="O1698" s="81"/>
+      <c r="P1698" s="81"/>
+      <c r="Q1698" s="81"/>
+      <c r="R1698" s="81"/>
+      <c r="S1698" s="81"/>
+      <c r="T1698" s="81"/>
+      <c r="U1698" s="81"/>
+      <c r="V1698" s="81"/>
+      <c r="W1698" s="81"/>
+      <c r="X1698" s="81"/>
+      <c r="Y1698" s="81"/>
+      <c r="Z1698" s="81"/>
+      <c r="AA1698" s="81"/>
+      <c r="AB1698" s="81"/>
+      <c r="AC1698" s="81"/>
+      <c r="AD1698" s="81"/>
+      <c r="AE1698" s="81"/>
+      <c r="AF1698" s="81"/>
+      <c r="AG1698" s="81"/>
+      <c r="AH1698" s="81"/>
     </row>
     <row r="1699" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1700" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -39426,39 +39427,39 @@
     <row r="1943" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1944" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1945" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1945" s="78"/>
-      <c r="C1945" s="78"/>
-      <c r="D1945" s="78"/>
-      <c r="E1945" s="78"/>
-      <c r="F1945" s="78"/>
-      <c r="G1945" s="78"/>
-      <c r="H1945" s="78"/>
-      <c r="I1945" s="78"/>
-      <c r="J1945" s="78"/>
-      <c r="K1945" s="78"/>
-      <c r="L1945" s="78"/>
-      <c r="M1945" s="78"/>
-      <c r="N1945" s="78"/>
-      <c r="O1945" s="78"/>
-      <c r="P1945" s="78"/>
-      <c r="Q1945" s="78"/>
-      <c r="R1945" s="78"/>
-      <c r="S1945" s="78"/>
-      <c r="T1945" s="78"/>
-      <c r="U1945" s="78"/>
-      <c r="V1945" s="78"/>
-      <c r="W1945" s="78"/>
-      <c r="X1945" s="78"/>
-      <c r="Y1945" s="78"/>
-      <c r="Z1945" s="78"/>
-      <c r="AA1945" s="78"/>
-      <c r="AB1945" s="78"/>
-      <c r="AC1945" s="78"/>
-      <c r="AD1945" s="78"/>
-      <c r="AE1945" s="78"/>
-      <c r="AF1945" s="78"/>
-      <c r="AG1945" s="78"/>
-      <c r="AH1945" s="78"/>
+      <c r="B1945" s="81"/>
+      <c r="C1945" s="81"/>
+      <c r="D1945" s="81"/>
+      <c r="E1945" s="81"/>
+      <c r="F1945" s="81"/>
+      <c r="G1945" s="81"/>
+      <c r="H1945" s="81"/>
+      <c r="I1945" s="81"/>
+      <c r="J1945" s="81"/>
+      <c r="K1945" s="81"/>
+      <c r="L1945" s="81"/>
+      <c r="M1945" s="81"/>
+      <c r="N1945" s="81"/>
+      <c r="O1945" s="81"/>
+      <c r="P1945" s="81"/>
+      <c r="Q1945" s="81"/>
+      <c r="R1945" s="81"/>
+      <c r="S1945" s="81"/>
+      <c r="T1945" s="81"/>
+      <c r="U1945" s="81"/>
+      <c r="V1945" s="81"/>
+      <c r="W1945" s="81"/>
+      <c r="X1945" s="81"/>
+      <c r="Y1945" s="81"/>
+      <c r="Z1945" s="81"/>
+      <c r="AA1945" s="81"/>
+      <c r="AB1945" s="81"/>
+      <c r="AC1945" s="81"/>
+      <c r="AD1945" s="81"/>
+      <c r="AE1945" s="81"/>
+      <c r="AF1945" s="81"/>
+      <c r="AG1945" s="81"/>
+      <c r="AH1945" s="81"/>
     </row>
     <row r="1946" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1947" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -39546,39 +39547,39 @@
     <row r="2029" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2030" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2031" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2031" s="78"/>
-      <c r="C2031" s="78"/>
-      <c r="D2031" s="78"/>
-      <c r="E2031" s="78"/>
-      <c r="F2031" s="78"/>
-      <c r="G2031" s="78"/>
-      <c r="H2031" s="78"/>
-      <c r="I2031" s="78"/>
-      <c r="J2031" s="78"/>
-      <c r="K2031" s="78"/>
-      <c r="L2031" s="78"/>
-      <c r="M2031" s="78"/>
-      <c r="N2031" s="78"/>
-      <c r="O2031" s="78"/>
-      <c r="P2031" s="78"/>
-      <c r="Q2031" s="78"/>
-      <c r="R2031" s="78"/>
-      <c r="S2031" s="78"/>
-      <c r="T2031" s="78"/>
-      <c r="U2031" s="78"/>
-      <c r="V2031" s="78"/>
-      <c r="W2031" s="78"/>
-      <c r="X2031" s="78"/>
-      <c r="Y2031" s="78"/>
-      <c r="Z2031" s="78"/>
-      <c r="AA2031" s="78"/>
-      <c r="AB2031" s="78"/>
-      <c r="AC2031" s="78"/>
-      <c r="AD2031" s="78"/>
-      <c r="AE2031" s="78"/>
-      <c r="AF2031" s="78"/>
-      <c r="AG2031" s="78"/>
-      <c r="AH2031" s="78"/>
+      <c r="B2031" s="81"/>
+      <c r="C2031" s="81"/>
+      <c r="D2031" s="81"/>
+      <c r="E2031" s="81"/>
+      <c r="F2031" s="81"/>
+      <c r="G2031" s="81"/>
+      <c r="H2031" s="81"/>
+      <c r="I2031" s="81"/>
+      <c r="J2031" s="81"/>
+      <c r="K2031" s="81"/>
+      <c r="L2031" s="81"/>
+      <c r="M2031" s="81"/>
+      <c r="N2031" s="81"/>
+      <c r="O2031" s="81"/>
+      <c r="P2031" s="81"/>
+      <c r="Q2031" s="81"/>
+      <c r="R2031" s="81"/>
+      <c r="S2031" s="81"/>
+      <c r="T2031" s="81"/>
+      <c r="U2031" s="81"/>
+      <c r="V2031" s="81"/>
+      <c r="W2031" s="81"/>
+      <c r="X2031" s="81"/>
+      <c r="Y2031" s="81"/>
+      <c r="Z2031" s="81"/>
+      <c r="AA2031" s="81"/>
+      <c r="AB2031" s="81"/>
+      <c r="AC2031" s="81"/>
+      <c r="AD2031" s="81"/>
+      <c r="AE2031" s="81"/>
+      <c r="AF2031" s="81"/>
+      <c r="AG2031" s="81"/>
+      <c r="AH2031" s="81"/>
     </row>
     <row r="2032" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2033" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -39702,39 +39703,39 @@
     <row r="2151" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2152" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2153" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2153" s="78"/>
-      <c r="C2153" s="78"/>
-      <c r="D2153" s="78"/>
-      <c r="E2153" s="78"/>
-      <c r="F2153" s="78"/>
-      <c r="G2153" s="78"/>
-      <c r="H2153" s="78"/>
-      <c r="I2153" s="78"/>
-      <c r="J2153" s="78"/>
-      <c r="K2153" s="78"/>
-      <c r="L2153" s="78"/>
-      <c r="M2153" s="78"/>
-      <c r="N2153" s="78"/>
-      <c r="O2153" s="78"/>
-      <c r="P2153" s="78"/>
-      <c r="Q2153" s="78"/>
-      <c r="R2153" s="78"/>
-      <c r="S2153" s="78"/>
-      <c r="T2153" s="78"/>
-      <c r="U2153" s="78"/>
-      <c r="V2153" s="78"/>
-      <c r="W2153" s="78"/>
-      <c r="X2153" s="78"/>
-      <c r="Y2153" s="78"/>
-      <c r="Z2153" s="78"/>
-      <c r="AA2153" s="78"/>
-      <c r="AB2153" s="78"/>
-      <c r="AC2153" s="78"/>
-      <c r="AD2153" s="78"/>
-      <c r="AE2153" s="78"/>
-      <c r="AF2153" s="78"/>
-      <c r="AG2153" s="78"/>
-      <c r="AH2153" s="78"/>
+      <c r="B2153" s="81"/>
+      <c r="C2153" s="81"/>
+      <c r="D2153" s="81"/>
+      <c r="E2153" s="81"/>
+      <c r="F2153" s="81"/>
+      <c r="G2153" s="81"/>
+      <c r="H2153" s="81"/>
+      <c r="I2153" s="81"/>
+      <c r="J2153" s="81"/>
+      <c r="K2153" s="81"/>
+      <c r="L2153" s="81"/>
+      <c r="M2153" s="81"/>
+      <c r="N2153" s="81"/>
+      <c r="O2153" s="81"/>
+      <c r="P2153" s="81"/>
+      <c r="Q2153" s="81"/>
+      <c r="R2153" s="81"/>
+      <c r="S2153" s="81"/>
+      <c r="T2153" s="81"/>
+      <c r="U2153" s="81"/>
+      <c r="V2153" s="81"/>
+      <c r="W2153" s="81"/>
+      <c r="X2153" s="81"/>
+      <c r="Y2153" s="81"/>
+      <c r="Z2153" s="81"/>
+      <c r="AA2153" s="81"/>
+      <c r="AB2153" s="81"/>
+      <c r="AC2153" s="81"/>
+      <c r="AD2153" s="81"/>
+      <c r="AE2153" s="81"/>
+      <c r="AF2153" s="81"/>
+      <c r="AG2153" s="81"/>
+      <c r="AH2153" s="81"/>
     </row>
     <row r="2154" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2155" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -39900,39 +39901,39 @@
     <row r="2315" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2316" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2317" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2317" s="78"/>
-      <c r="C2317" s="78"/>
-      <c r="D2317" s="78"/>
-      <c r="E2317" s="78"/>
-      <c r="F2317" s="78"/>
-      <c r="G2317" s="78"/>
-      <c r="H2317" s="78"/>
-      <c r="I2317" s="78"/>
-      <c r="J2317" s="78"/>
-      <c r="K2317" s="78"/>
-      <c r="L2317" s="78"/>
-      <c r="M2317" s="78"/>
-      <c r="N2317" s="78"/>
-      <c r="O2317" s="78"/>
-      <c r="P2317" s="78"/>
-      <c r="Q2317" s="78"/>
-      <c r="R2317" s="78"/>
-      <c r="S2317" s="78"/>
-      <c r="T2317" s="78"/>
-      <c r="U2317" s="78"/>
-      <c r="V2317" s="78"/>
-      <c r="W2317" s="78"/>
-      <c r="X2317" s="78"/>
-      <c r="Y2317" s="78"/>
-      <c r="Z2317" s="78"/>
-      <c r="AA2317" s="78"/>
-      <c r="AB2317" s="78"/>
-      <c r="AC2317" s="78"/>
-      <c r="AD2317" s="78"/>
-      <c r="AE2317" s="78"/>
-      <c r="AF2317" s="78"/>
-      <c r="AG2317" s="78"/>
-      <c r="AH2317" s="78"/>
+      <c r="B2317" s="81"/>
+      <c r="C2317" s="81"/>
+      <c r="D2317" s="81"/>
+      <c r="E2317" s="81"/>
+      <c r="F2317" s="81"/>
+      <c r="G2317" s="81"/>
+      <c r="H2317" s="81"/>
+      <c r="I2317" s="81"/>
+      <c r="J2317" s="81"/>
+      <c r="K2317" s="81"/>
+      <c r="L2317" s="81"/>
+      <c r="M2317" s="81"/>
+      <c r="N2317" s="81"/>
+      <c r="O2317" s="81"/>
+      <c r="P2317" s="81"/>
+      <c r="Q2317" s="81"/>
+      <c r="R2317" s="81"/>
+      <c r="S2317" s="81"/>
+      <c r="T2317" s="81"/>
+      <c r="U2317" s="81"/>
+      <c r="V2317" s="81"/>
+      <c r="W2317" s="81"/>
+      <c r="X2317" s="81"/>
+      <c r="Y2317" s="81"/>
+      <c r="Z2317" s="81"/>
+      <c r="AA2317" s="81"/>
+      <c r="AB2317" s="81"/>
+      <c r="AC2317" s="81"/>
+      <c r="AD2317" s="81"/>
+      <c r="AE2317" s="81"/>
+      <c r="AF2317" s="81"/>
+      <c r="AG2317" s="81"/>
+      <c r="AH2317" s="81"/>
     </row>
     <row r="2318" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2319" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -40036,39 +40037,39 @@
     <row r="2417" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2418" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2419" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2419" s="78"/>
-      <c r="C2419" s="78"/>
-      <c r="D2419" s="78"/>
-      <c r="E2419" s="78"/>
-      <c r="F2419" s="78"/>
-      <c r="G2419" s="78"/>
-      <c r="H2419" s="78"/>
-      <c r="I2419" s="78"/>
-      <c r="J2419" s="78"/>
-      <c r="K2419" s="78"/>
-      <c r="L2419" s="78"/>
-      <c r="M2419" s="78"/>
-      <c r="N2419" s="78"/>
-      <c r="O2419" s="78"/>
-      <c r="P2419" s="78"/>
-      <c r="Q2419" s="78"/>
-      <c r="R2419" s="78"/>
-      <c r="S2419" s="78"/>
-      <c r="T2419" s="78"/>
-      <c r="U2419" s="78"/>
-      <c r="V2419" s="78"/>
-      <c r="W2419" s="78"/>
-      <c r="X2419" s="78"/>
-      <c r="Y2419" s="78"/>
-      <c r="Z2419" s="78"/>
-      <c r="AA2419" s="78"/>
-      <c r="AB2419" s="78"/>
-      <c r="AC2419" s="78"/>
-      <c r="AD2419" s="78"/>
-      <c r="AE2419" s="78"/>
-      <c r="AF2419" s="78"/>
-      <c r="AG2419" s="78"/>
-      <c r="AH2419" s="78"/>
+      <c r="B2419" s="81"/>
+      <c r="C2419" s="81"/>
+      <c r="D2419" s="81"/>
+      <c r="E2419" s="81"/>
+      <c r="F2419" s="81"/>
+      <c r="G2419" s="81"/>
+      <c r="H2419" s="81"/>
+      <c r="I2419" s="81"/>
+      <c r="J2419" s="81"/>
+      <c r="K2419" s="81"/>
+      <c r="L2419" s="81"/>
+      <c r="M2419" s="81"/>
+      <c r="N2419" s="81"/>
+      <c r="O2419" s="81"/>
+      <c r="P2419" s="81"/>
+      <c r="Q2419" s="81"/>
+      <c r="R2419" s="81"/>
+      <c r="S2419" s="81"/>
+      <c r="T2419" s="81"/>
+      <c r="U2419" s="81"/>
+      <c r="V2419" s="81"/>
+      <c r="W2419" s="81"/>
+      <c r="X2419" s="81"/>
+      <c r="Y2419" s="81"/>
+      <c r="Z2419" s="81"/>
+      <c r="AA2419" s="81"/>
+      <c r="AB2419" s="81"/>
+      <c r="AC2419" s="81"/>
+      <c r="AD2419" s="81"/>
+      <c r="AE2419" s="81"/>
+      <c r="AF2419" s="81"/>
+      <c r="AG2419" s="81"/>
+      <c r="AH2419" s="81"/>
     </row>
     <row r="2420" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2421" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -40160,39 +40161,39 @@
     <row r="2507" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2508" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2509" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2509" s="78"/>
-      <c r="C2509" s="78"/>
-      <c r="D2509" s="78"/>
-      <c r="E2509" s="78"/>
-      <c r="F2509" s="78"/>
-      <c r="G2509" s="78"/>
-      <c r="H2509" s="78"/>
-      <c r="I2509" s="78"/>
-      <c r="J2509" s="78"/>
-      <c r="K2509" s="78"/>
-      <c r="L2509" s="78"/>
-      <c r="M2509" s="78"/>
-      <c r="N2509" s="78"/>
-      <c r="O2509" s="78"/>
-      <c r="P2509" s="78"/>
-      <c r="Q2509" s="78"/>
-      <c r="R2509" s="78"/>
-      <c r="S2509" s="78"/>
-      <c r="T2509" s="78"/>
-      <c r="U2509" s="78"/>
-      <c r="V2509" s="78"/>
-      <c r="W2509" s="78"/>
-      <c r="X2509" s="78"/>
-      <c r="Y2509" s="78"/>
-      <c r="Z2509" s="78"/>
-      <c r="AA2509" s="78"/>
-      <c r="AB2509" s="78"/>
-      <c r="AC2509" s="78"/>
-      <c r="AD2509" s="78"/>
-      <c r="AE2509" s="78"/>
-      <c r="AF2509" s="78"/>
-      <c r="AG2509" s="78"/>
-      <c r="AH2509" s="78"/>
+      <c r="B2509" s="81"/>
+      <c r="C2509" s="81"/>
+      <c r="D2509" s="81"/>
+      <c r="E2509" s="81"/>
+      <c r="F2509" s="81"/>
+      <c r="G2509" s="81"/>
+      <c r="H2509" s="81"/>
+      <c r="I2509" s="81"/>
+      <c r="J2509" s="81"/>
+      <c r="K2509" s="81"/>
+      <c r="L2509" s="81"/>
+      <c r="M2509" s="81"/>
+      <c r="N2509" s="81"/>
+      <c r="O2509" s="81"/>
+      <c r="P2509" s="81"/>
+      <c r="Q2509" s="81"/>
+      <c r="R2509" s="81"/>
+      <c r="S2509" s="81"/>
+      <c r="T2509" s="81"/>
+      <c r="U2509" s="81"/>
+      <c r="V2509" s="81"/>
+      <c r="W2509" s="81"/>
+      <c r="X2509" s="81"/>
+      <c r="Y2509" s="81"/>
+      <c r="Z2509" s="81"/>
+      <c r="AA2509" s="81"/>
+      <c r="AB2509" s="81"/>
+      <c r="AC2509" s="81"/>
+      <c r="AD2509" s="81"/>
+      <c r="AE2509" s="81"/>
+      <c r="AF2509" s="81"/>
+      <c r="AG2509" s="81"/>
+      <c r="AH2509" s="81"/>
     </row>
     <row r="2510" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2511" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -40283,39 +40284,39 @@
     <row r="2596" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2597" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2598" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2598" s="78"/>
-      <c r="C2598" s="78"/>
-      <c r="D2598" s="78"/>
-      <c r="E2598" s="78"/>
-      <c r="F2598" s="78"/>
-      <c r="G2598" s="78"/>
-      <c r="H2598" s="78"/>
-      <c r="I2598" s="78"/>
-      <c r="J2598" s="78"/>
-      <c r="K2598" s="78"/>
-      <c r="L2598" s="78"/>
-      <c r="M2598" s="78"/>
-      <c r="N2598" s="78"/>
-      <c r="O2598" s="78"/>
-      <c r="P2598" s="78"/>
-      <c r="Q2598" s="78"/>
-      <c r="R2598" s="78"/>
-      <c r="S2598" s="78"/>
-      <c r="T2598" s="78"/>
-      <c r="U2598" s="78"/>
-      <c r="V2598" s="78"/>
-      <c r="W2598" s="78"/>
-      <c r="X2598" s="78"/>
-      <c r="Y2598" s="78"/>
-      <c r="Z2598" s="78"/>
-      <c r="AA2598" s="78"/>
-      <c r="AB2598" s="78"/>
-      <c r="AC2598" s="78"/>
-      <c r="AD2598" s="78"/>
-      <c r="AE2598" s="78"/>
-      <c r="AF2598" s="78"/>
-      <c r="AG2598" s="78"/>
-      <c r="AH2598" s="78"/>
+      <c r="B2598" s="81"/>
+      <c r="C2598" s="81"/>
+      <c r="D2598" s="81"/>
+      <c r="E2598" s="81"/>
+      <c r="F2598" s="81"/>
+      <c r="G2598" s="81"/>
+      <c r="H2598" s="81"/>
+      <c r="I2598" s="81"/>
+      <c r="J2598" s="81"/>
+      <c r="K2598" s="81"/>
+      <c r="L2598" s="81"/>
+      <c r="M2598" s="81"/>
+      <c r="N2598" s="81"/>
+      <c r="O2598" s="81"/>
+      <c r="P2598" s="81"/>
+      <c r="Q2598" s="81"/>
+      <c r="R2598" s="81"/>
+      <c r="S2598" s="81"/>
+      <c r="T2598" s="81"/>
+      <c r="U2598" s="81"/>
+      <c r="V2598" s="81"/>
+      <c r="W2598" s="81"/>
+      <c r="X2598" s="81"/>
+      <c r="Y2598" s="81"/>
+      <c r="Z2598" s="81"/>
+      <c r="AA2598" s="81"/>
+      <c r="AB2598" s="81"/>
+      <c r="AC2598" s="81"/>
+      <c r="AD2598" s="81"/>
+      <c r="AE2598" s="81"/>
+      <c r="AF2598" s="81"/>
+      <c r="AG2598" s="81"/>
+      <c r="AH2598" s="81"/>
     </row>
     <row r="2599" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2600" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -40438,39 +40439,39 @@
     <row r="2717" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2718" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2719" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2719" s="78"/>
-      <c r="C2719" s="78"/>
-      <c r="D2719" s="78"/>
-      <c r="E2719" s="78"/>
-      <c r="F2719" s="78"/>
-      <c r="G2719" s="78"/>
-      <c r="H2719" s="78"/>
-      <c r="I2719" s="78"/>
-      <c r="J2719" s="78"/>
-      <c r="K2719" s="78"/>
-      <c r="L2719" s="78"/>
-      <c r="M2719" s="78"/>
-      <c r="N2719" s="78"/>
-      <c r="O2719" s="78"/>
-      <c r="P2719" s="78"/>
-      <c r="Q2719" s="78"/>
-      <c r="R2719" s="78"/>
-      <c r="S2719" s="78"/>
-      <c r="T2719" s="78"/>
-      <c r="U2719" s="78"/>
-      <c r="V2719" s="78"/>
-      <c r="W2719" s="78"/>
-      <c r="X2719" s="78"/>
-      <c r="Y2719" s="78"/>
-      <c r="Z2719" s="78"/>
-      <c r="AA2719" s="78"/>
-      <c r="AB2719" s="78"/>
-      <c r="AC2719" s="78"/>
-      <c r="AD2719" s="78"/>
-      <c r="AE2719" s="78"/>
-      <c r="AF2719" s="78"/>
-      <c r="AG2719" s="78"/>
-      <c r="AH2719" s="78"/>
+      <c r="B2719" s="81"/>
+      <c r="C2719" s="81"/>
+      <c r="D2719" s="81"/>
+      <c r="E2719" s="81"/>
+      <c r="F2719" s="81"/>
+      <c r="G2719" s="81"/>
+      <c r="H2719" s="81"/>
+      <c r="I2719" s="81"/>
+      <c r="J2719" s="81"/>
+      <c r="K2719" s="81"/>
+      <c r="L2719" s="81"/>
+      <c r="M2719" s="81"/>
+      <c r="N2719" s="81"/>
+      <c r="O2719" s="81"/>
+      <c r="P2719" s="81"/>
+      <c r="Q2719" s="81"/>
+      <c r="R2719" s="81"/>
+      <c r="S2719" s="81"/>
+      <c r="T2719" s="81"/>
+      <c r="U2719" s="81"/>
+      <c r="V2719" s="81"/>
+      <c r="W2719" s="81"/>
+      <c r="X2719" s="81"/>
+      <c r="Y2719" s="81"/>
+      <c r="Z2719" s="81"/>
+      <c r="AA2719" s="81"/>
+      <c r="AB2719" s="81"/>
+      <c r="AC2719" s="81"/>
+      <c r="AD2719" s="81"/>
+      <c r="AE2719" s="81"/>
+      <c r="AF2719" s="81"/>
+      <c r="AG2719" s="81"/>
+      <c r="AH2719" s="81"/>
     </row>
     <row r="2720" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2721" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -40590,63 +40591,63 @@
     <row r="2835" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2836" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2837" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2837" s="78"/>
-      <c r="C2837" s="78"/>
-      <c r="D2837" s="78"/>
-      <c r="E2837" s="78"/>
-      <c r="F2837" s="78"/>
-      <c r="G2837" s="78"/>
-      <c r="H2837" s="78"/>
-      <c r="I2837" s="78"/>
-      <c r="J2837" s="78"/>
-      <c r="K2837" s="78"/>
-      <c r="L2837" s="78"/>
-      <c r="M2837" s="78"/>
-      <c r="N2837" s="78"/>
-      <c r="O2837" s="78"/>
-      <c r="P2837" s="78"/>
-      <c r="Q2837" s="78"/>
-      <c r="R2837" s="78"/>
-      <c r="S2837" s="78"/>
-      <c r="T2837" s="78"/>
-      <c r="U2837" s="78"/>
-      <c r="V2837" s="78"/>
-      <c r="W2837" s="78"/>
-      <c r="X2837" s="78"/>
-      <c r="Y2837" s="78"/>
-      <c r="Z2837" s="78"/>
-      <c r="AA2837" s="78"/>
-      <c r="AB2837" s="78"/>
-      <c r="AC2837" s="78"/>
-      <c r="AD2837" s="78"/>
-      <c r="AE2837" s="78"/>
-      <c r="AF2837" s="78"/>
-      <c r="AG2837" s="78"/>
-      <c r="AH2837" s="78"/>
+      <c r="B2837" s="81"/>
+      <c r="C2837" s="81"/>
+      <c r="D2837" s="81"/>
+      <c r="E2837" s="81"/>
+      <c r="F2837" s="81"/>
+      <c r="G2837" s="81"/>
+      <c r="H2837" s="81"/>
+      <c r="I2837" s="81"/>
+      <c r="J2837" s="81"/>
+      <c r="K2837" s="81"/>
+      <c r="L2837" s="81"/>
+      <c r="M2837" s="81"/>
+      <c r="N2837" s="81"/>
+      <c r="O2837" s="81"/>
+      <c r="P2837" s="81"/>
+      <c r="Q2837" s="81"/>
+      <c r="R2837" s="81"/>
+      <c r="S2837" s="81"/>
+      <c r="T2837" s="81"/>
+      <c r="U2837" s="81"/>
+      <c r="V2837" s="81"/>
+      <c r="W2837" s="81"/>
+      <c r="X2837" s="81"/>
+      <c r="Y2837" s="81"/>
+      <c r="Z2837" s="81"/>
+      <c r="AA2837" s="81"/>
+      <c r="AB2837" s="81"/>
+      <c r="AC2837" s="81"/>
+      <c r="AD2837" s="81"/>
+      <c r="AE2837" s="81"/>
+      <c r="AF2837" s="81"/>
+      <c r="AG2837" s="81"/>
+      <c r="AH2837" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B83:AG83"/>
-    <mergeCell ref="B112:AH112"/>
-    <mergeCell ref="B308:AH308"/>
-    <mergeCell ref="B511:AH511"/>
-    <mergeCell ref="B712:AH712"/>
-    <mergeCell ref="B887:AH887"/>
-    <mergeCell ref="B1100:AH1100"/>
-    <mergeCell ref="B1227:AH1227"/>
-    <mergeCell ref="B1390:AH1390"/>
-    <mergeCell ref="B1502:AH1502"/>
-    <mergeCell ref="B1604:AH1604"/>
-    <mergeCell ref="B1698:AH1698"/>
-    <mergeCell ref="B1945:AH1945"/>
-    <mergeCell ref="B2031:AH2031"/>
-    <mergeCell ref="B2719:AH2719"/>
     <mergeCell ref="B2837:AH2837"/>
     <mergeCell ref="B2153:AH2153"/>
     <mergeCell ref="B2317:AH2317"/>
     <mergeCell ref="B2419:AH2419"/>
     <mergeCell ref="B2509:AH2509"/>
     <mergeCell ref="B2598:AH2598"/>
+    <mergeCell ref="B1604:AH1604"/>
+    <mergeCell ref="B1698:AH1698"/>
+    <mergeCell ref="B1945:AH1945"/>
+    <mergeCell ref="B2031:AH2031"/>
+    <mergeCell ref="B2719:AH2719"/>
+    <mergeCell ref="B887:AH887"/>
+    <mergeCell ref="B1100:AH1100"/>
+    <mergeCell ref="B1227:AH1227"/>
+    <mergeCell ref="B1390:AH1390"/>
+    <mergeCell ref="B1502:AH1502"/>
+    <mergeCell ref="B83:AG83"/>
+    <mergeCell ref="B112:AH112"/>
+    <mergeCell ref="B308:AH308"/>
+    <mergeCell ref="B511:AH511"/>
+    <mergeCell ref="B712:AH712"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -40656,8 +40657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AJ121"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:K12"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:AG11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40861,237 +40862,239 @@
         <v>545</v>
       </c>
       <c r="C4" s="7">
-        <v>1236130</v>
+        <v>923540</v>
       </c>
       <c r="D4" s="7">
-        <v>1162950</v>
+        <v>869853</v>
       </c>
       <c r="E4" s="7">
-        <v>1097550</v>
+        <v>824592</v>
       </c>
       <c r="F4" s="7">
-        <v>1036680</v>
-      </c>
-      <c r="G4" s="73">
-        <v>984395</v>
-      </c>
-      <c r="H4" s="73">
-        <v>939448</v>
-      </c>
-      <c r="I4" s="73">
-        <v>876749</v>
-      </c>
-      <c r="J4" s="73">
-        <v>827610</v>
-      </c>
-      <c r="K4" s="73">
-        <v>780512</v>
-      </c>
-      <c r="L4" s="73">
-        <v>738678</v>
-      </c>
-      <c r="M4" s="73">
-        <v>697778</v>
-      </c>
-      <c r="N4" s="73">
-        <v>682690</v>
-      </c>
-      <c r="O4" s="73">
-        <v>668458</v>
-      </c>
-      <c r="P4" s="73">
-        <v>656157</v>
-      </c>
-      <c r="Q4" s="73">
-        <v>644664</v>
-      </c>
-      <c r="R4" s="73">
-        <v>634183</v>
-      </c>
-      <c r="S4" s="73">
-        <v>624954</v>
-      </c>
-      <c r="T4" s="73">
-        <v>617326</v>
-      </c>
-      <c r="U4" s="73">
-        <v>610111</v>
-      </c>
-      <c r="V4" s="73">
-        <v>603419</v>
-      </c>
-      <c r="W4" s="73">
-        <v>597334</v>
-      </c>
-      <c r="X4" s="73">
-        <v>591720</v>
-      </c>
-      <c r="Y4" s="73">
-        <v>586389</v>
-      </c>
-      <c r="Z4" s="73">
-        <v>581227</v>
-      </c>
-      <c r="AA4" s="73">
-        <v>576002</v>
-      </c>
-      <c r="AB4" s="73">
-        <v>570667</v>
-      </c>
-      <c r="AC4" s="73">
-        <v>565925</v>
-      </c>
-      <c r="AD4" s="73">
-        <v>561487</v>
-      </c>
-      <c r="AE4" s="73">
-        <v>557214</v>
-      </c>
-      <c r="AF4" s="73">
-        <v>552948</v>
-      </c>
-      <c r="AG4" s="73">
-        <v>549004</v>
-      </c>
+        <v>779447</v>
+      </c>
+      <c r="G4" s="78">
+        <v>737696</v>
+      </c>
+      <c r="H4" s="78">
+        <v>699740</v>
+      </c>
+      <c r="I4" s="78">
+        <v>664285</v>
+      </c>
+      <c r="J4" s="78">
+        <v>632638</v>
+      </c>
+      <c r="K4" s="78">
+        <v>602733</v>
+      </c>
+      <c r="L4" s="78">
+        <v>573776</v>
+      </c>
+      <c r="M4" s="78">
+        <v>544971</v>
+      </c>
+      <c r="N4" s="78">
+        <v>532645</v>
+      </c>
+      <c r="O4" s="78">
+        <v>521594</v>
+      </c>
+      <c r="P4" s="78">
+        <v>511034</v>
+      </c>
+      <c r="Q4" s="78">
+        <v>501004</v>
+      </c>
+      <c r="R4" s="78">
+        <v>491451</v>
+      </c>
+      <c r="S4" s="78">
+        <v>482762</v>
+      </c>
+      <c r="T4" s="78">
+        <v>476224</v>
+      </c>
+      <c r="U4" s="78">
+        <v>470112</v>
+      </c>
+      <c r="V4" s="78">
+        <v>464477</v>
+      </c>
+      <c r="W4" s="78">
+        <v>459345</v>
+      </c>
+      <c r="X4" s="78">
+        <v>454723</v>
+      </c>
+      <c r="Y4" s="78">
+        <v>450398</v>
+      </c>
+      <c r="Z4" s="78">
+        <v>446402</v>
+      </c>
+      <c r="AA4" s="78">
+        <v>442331</v>
+      </c>
+      <c r="AB4" s="78">
+        <v>438627</v>
+      </c>
+      <c r="AC4" s="78">
+        <v>435223</v>
+      </c>
+      <c r="AD4" s="78">
+        <v>431781</v>
+      </c>
+      <c r="AE4" s="78">
+        <v>428307</v>
+      </c>
+      <c r="AF4" s="78">
+        <v>424843</v>
+      </c>
+      <c r="AG4" s="78">
+        <v>421547</v>
+      </c>
+      <c r="AH4" s="78"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="73" t="s">
         <v>658</v>
       </c>
-      <c r="C5" s="73">
+      <c r="C5" s="78">
         <f>'Subsidies Paid'!K7*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>0.20099999999999998</v>
       </c>
-      <c r="D5" s="73">
+      <c r="D5" s="78">
         <f>'Subsidies Paid'!L7*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>0.20099999999999998</v>
       </c>
-      <c r="E5" s="73">
+      <c r="E5" s="78">
         <f>'Subsidies Paid'!M7*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>0.17419999999999999</v>
       </c>
-      <c r="F5" s="73">
+      <c r="F5" s="78">
         <f>'Subsidies Paid'!N7*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>0.17419999999999999</v>
       </c>
-      <c r="G5" s="73">
+      <c r="G5" s="78">
         <f>'Subsidies Paid'!O7*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>0.17419999999999999</v>
       </c>
-      <c r="H5" s="73">
+      <c r="H5" s="78">
         <f>'Subsidies Paid'!P7*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>0.14739999999999998</v>
       </c>
-      <c r="I5" s="73">
+      <c r="I5" s="78">
         <f>'Subsidies Paid'!Q7*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>6.699999999999999E-2</v>
       </c>
-      <c r="J5" s="73">
+      <c r="J5" s="78">
         <f>'Subsidies Paid'!R7*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>6.699999999999999E-2</v>
       </c>
-      <c r="K5" s="73">
+      <c r="K5" s="78">
         <f>'Subsidies Paid'!S7*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>6.699999999999999E-2</v>
       </c>
-      <c r="L5" s="73">
+      <c r="L5" s="78">
         <f>'Subsidies Paid'!T7*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>6.699999999999999E-2</v>
       </c>
-      <c r="M5" s="73">
+      <c r="M5" s="78">
         <f>'Subsidies Paid'!U7*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>6.699999999999999E-2</v>
       </c>
-      <c r="N5" s="73">
+      <c r="N5" s="78">
         <f>'Subsidies Paid'!V7*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>6.699999999999999E-2</v>
       </c>
-      <c r="O5" s="73">
+      <c r="O5" s="78">
         <f>'Subsidies Paid'!W7*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>6.699999999999999E-2</v>
       </c>
-      <c r="P5" s="73">
+      <c r="P5" s="78">
         <f>O5</f>
         <v>6.699999999999999E-2</v>
       </c>
-      <c r="Q5" s="73">
+      <c r="Q5" s="78">
         <f t="shared" ref="Q5:AG5" si="0">P5</f>
         <v>6.699999999999999E-2</v>
       </c>
-      <c r="R5" s="73">
+      <c r="R5" s="78">
         <f t="shared" si="0"/>
         <v>6.699999999999999E-2</v>
       </c>
-      <c r="S5" s="73">
+      <c r="S5" s="78">
         <f t="shared" si="0"/>
         <v>6.699999999999999E-2</v>
       </c>
-      <c r="T5" s="73">
+      <c r="T5" s="78">
         <f t="shared" si="0"/>
         <v>6.699999999999999E-2</v>
       </c>
-      <c r="U5" s="73">
+      <c r="U5" s="78">
         <f t="shared" si="0"/>
         <v>6.699999999999999E-2</v>
       </c>
-      <c r="V5" s="73">
+      <c r="V5" s="78">
         <f t="shared" si="0"/>
         <v>6.699999999999999E-2</v>
       </c>
-      <c r="W5" s="73">
+      <c r="W5" s="78">
         <f t="shared" si="0"/>
         <v>6.699999999999999E-2</v>
       </c>
-      <c r="X5" s="73">
+      <c r="X5" s="78">
         <f t="shared" si="0"/>
         <v>6.699999999999999E-2</v>
       </c>
-      <c r="Y5" s="73">
+      <c r="Y5" s="78">
         <f t="shared" si="0"/>
         <v>6.699999999999999E-2</v>
       </c>
-      <c r="Z5" s="73">
+      <c r="Z5" s="78">
         <f t="shared" si="0"/>
         <v>6.699999999999999E-2</v>
       </c>
-      <c r="AA5" s="73">
+      <c r="AA5" s="78">
         <f t="shared" si="0"/>
         <v>6.699999999999999E-2</v>
       </c>
-      <c r="AB5" s="73">
+      <c r="AB5" s="78">
         <f t="shared" si="0"/>
         <v>6.699999999999999E-2</v>
       </c>
-      <c r="AC5" s="73">
+      <c r="AC5" s="78">
         <f t="shared" si="0"/>
         <v>6.699999999999999E-2</v>
       </c>
-      <c r="AD5" s="73">
+      <c r="AD5" s="78">
         <f t="shared" si="0"/>
         <v>6.699999999999999E-2</v>
       </c>
-      <c r="AE5" s="73">
+      <c r="AE5" s="78">
         <f t="shared" si="0"/>
         <v>6.699999999999999E-2</v>
       </c>
-      <c r="AF5" s="73">
+      <c r="AF5" s="78">
         <f t="shared" si="0"/>
         <v>6.699999999999999E-2</v>
       </c>
-      <c r="AG5" s="73">
+      <c r="AG5" s="78">
         <f t="shared" si="0"/>
         <v>6.699999999999999E-2</v>
       </c>
+      <c r="AH5" s="78"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="83" t="s">
         <v>656</v>
       </c>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="73" t="s">
@@ -41099,127 +41102,127 @@
       </c>
       <c r="C7" s="26">
         <f>C5*C4</f>
-        <v>248462.12999999998</v>
+        <v>185631.53999999998</v>
       </c>
       <c r="D7" s="26">
         <f t="shared" ref="D7:AG7" si="1">D5*D4</f>
-        <v>233752.94999999998</v>
+        <v>174840.45299999998</v>
       </c>
       <c r="E7" s="26">
         <f t="shared" si="1"/>
-        <v>191193.21</v>
+        <v>143643.9264</v>
       </c>
       <c r="F7" s="26">
         <f t="shared" si="1"/>
-        <v>180589.65599999999</v>
+        <v>135779.66740000001</v>
       </c>
       <c r="G7" s="26">
         <f t="shared" si="1"/>
-        <v>171481.609</v>
+        <v>128506.64319999999</v>
       </c>
       <c r="H7" s="26">
         <f t="shared" si="1"/>
-        <v>138474.63519999999</v>
+        <v>103141.67599999998</v>
       </c>
       <c r="I7" s="26">
         <f t="shared" si="1"/>
-        <v>58742.18299999999</v>
+        <v>44507.094999999994</v>
       </c>
       <c r="J7" s="26">
         <f t="shared" si="1"/>
-        <v>55449.869999999995</v>
+        <v>42386.745999999992</v>
       </c>
       <c r="K7" s="26">
         <f t="shared" si="1"/>
-        <v>52294.303999999989</v>
+        <v>40383.110999999997</v>
       </c>
       <c r="L7" s="26">
         <f t="shared" si="1"/>
-        <v>49491.425999999992</v>
+        <v>38442.991999999991</v>
       </c>
       <c r="M7" s="26">
         <f t="shared" si="1"/>
-        <v>46751.125999999997</v>
+        <v>36513.056999999993</v>
       </c>
       <c r="N7" s="26">
         <f t="shared" si="1"/>
-        <v>45740.229999999996</v>
+        <v>35687.214999999997</v>
       </c>
       <c r="O7" s="26">
         <f t="shared" si="1"/>
-        <v>44786.685999999994</v>
+        <v>34946.797999999995</v>
       </c>
       <c r="P7" s="26">
         <f t="shared" si="1"/>
-        <v>43962.518999999993</v>
+        <v>34239.277999999998</v>
       </c>
       <c r="Q7" s="26">
         <f t="shared" si="1"/>
-        <v>43192.48799999999</v>
+        <v>33567.267999999996</v>
       </c>
       <c r="R7" s="26">
         <f t="shared" si="1"/>
-        <v>42490.260999999991</v>
+        <v>32927.216999999997</v>
       </c>
       <c r="S7" s="26">
         <f t="shared" si="1"/>
-        <v>41871.917999999991</v>
+        <v>32345.053999999996</v>
       </c>
       <c r="T7" s="26">
         <f t="shared" si="1"/>
-        <v>41360.841999999997</v>
+        <v>31907.007999999994</v>
       </c>
       <c r="U7" s="26">
         <f t="shared" si="1"/>
-        <v>40877.436999999991</v>
+        <v>31497.503999999994</v>
       </c>
       <c r="V7" s="26">
         <f t="shared" si="1"/>
-        <v>40429.072999999997</v>
+        <v>31119.958999999995</v>
       </c>
       <c r="W7" s="26">
         <f t="shared" si="1"/>
-        <v>40021.377999999997</v>
+        <v>30776.114999999994</v>
       </c>
       <c r="X7" s="26">
         <f t="shared" si="1"/>
-        <v>39645.239999999991</v>
+        <v>30466.440999999995</v>
       </c>
       <c r="Y7" s="26">
         <f t="shared" si="1"/>
-        <v>39288.062999999995</v>
+        <v>30176.665999999994</v>
       </c>
       <c r="Z7" s="26">
         <f t="shared" si="1"/>
-        <v>38942.208999999995</v>
+        <v>29908.933999999994</v>
       </c>
       <c r="AA7" s="26">
         <f t="shared" si="1"/>
-        <v>38592.133999999991</v>
+        <v>29636.176999999996</v>
       </c>
       <c r="AB7" s="26">
         <f t="shared" si="1"/>
-        <v>38234.688999999991</v>
+        <v>29388.008999999995</v>
       </c>
       <c r="AC7" s="26">
         <f t="shared" si="1"/>
-        <v>37916.974999999991</v>
+        <v>29159.940999999995</v>
       </c>
       <c r="AD7" s="26">
         <f t="shared" si="1"/>
-        <v>37619.628999999994</v>
+        <v>28929.326999999997</v>
       </c>
       <c r="AE7" s="26">
         <f t="shared" si="1"/>
-        <v>37333.337999999996</v>
+        <v>28696.568999999996</v>
       </c>
       <c r="AF7" s="26">
         <f t="shared" si="1"/>
-        <v>37047.515999999996</v>
+        <v>28464.480999999996</v>
       </c>
       <c r="AG7" s="26">
         <f t="shared" si="1"/>
-        <v>36783.267999999996</v>
+        <v>28243.648999999998</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
@@ -41370,97 +41373,97 @@
         <v>545</v>
       </c>
       <c r="C11" s="7">
-        <v>4181490</v>
+        <v>3252760</v>
       </c>
       <c r="D11" s="7">
-        <v>3954720</v>
+        <v>3143970</v>
       </c>
       <c r="E11" s="7">
-        <v>3738570</v>
+        <v>3043330</v>
       </c>
       <c r="F11" s="7">
-        <v>3531110</v>
+        <v>2951260</v>
       </c>
       <c r="G11" s="7">
-        <v>3258520</v>
-      </c>
-      <c r="H11" s="73">
-        <v>3074340</v>
-      </c>
-      <c r="I11" s="73">
-        <v>2958590</v>
-      </c>
-      <c r="J11" s="73">
-        <v>2853280</v>
-      </c>
-      <c r="K11" s="73">
-        <v>2756500</v>
-      </c>
-      <c r="L11" s="73">
-        <v>2666830</v>
-      </c>
-      <c r="M11" s="73">
-        <v>2583090</v>
-      </c>
-      <c r="N11" s="73">
-        <v>2510020</v>
-      </c>
-      <c r="O11" s="73">
-        <v>2441580</v>
-      </c>
-      <c r="P11" s="73">
-        <v>2377060</v>
-      </c>
-      <c r="Q11" s="73">
-        <v>2315900</v>
-      </c>
-      <c r="R11" s="73">
-        <v>2257660</v>
-      </c>
-      <c r="S11" s="73">
-        <v>2225490</v>
-      </c>
-      <c r="T11" s="73">
-        <v>2196980</v>
-      </c>
-      <c r="U11" s="73">
-        <v>2171660</v>
-      </c>
-      <c r="V11" s="73">
-        <v>2149110</v>
-      </c>
-      <c r="W11" s="73">
-        <v>2129020</v>
-      </c>
-      <c r="X11" s="73">
-        <v>2094540</v>
-      </c>
-      <c r="Y11" s="73">
-        <v>2063310</v>
-      </c>
-      <c r="Z11" s="73">
-        <v>2034900</v>
-      </c>
-      <c r="AA11" s="73">
-        <v>2008960</v>
-      </c>
-      <c r="AB11" s="73">
-        <v>1985200</v>
-      </c>
-      <c r="AC11" s="73">
-        <v>1958370</v>
-      </c>
-      <c r="AD11" s="73">
-        <v>1934300</v>
-      </c>
-      <c r="AE11" s="73">
-        <v>1912600</v>
-      </c>
-      <c r="AF11" s="73">
-        <v>1892950</v>
-      </c>
-      <c r="AG11" s="73">
-        <v>1875110</v>
+        <v>2831640</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2728630</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2616570</v>
+      </c>
+      <c r="J11" s="7">
+        <v>2528050</v>
+      </c>
+      <c r="K11" s="7">
+        <v>2451590</v>
+      </c>
+      <c r="L11" s="7">
+        <v>2382680</v>
+      </c>
+      <c r="M11" s="7">
+        <v>2317520</v>
+      </c>
+      <c r="N11" s="7">
+        <v>2259750</v>
+      </c>
+      <c r="O11" s="7">
+        <v>2206130</v>
+      </c>
+      <c r="P11" s="7">
+        <v>2155810</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>2108390</v>
+      </c>
+      <c r="R11" s="7">
+        <v>2064070</v>
+      </c>
+      <c r="S11" s="7">
+        <v>2015810</v>
+      </c>
+      <c r="T11" s="7">
+        <v>1977210</v>
+      </c>
+      <c r="U11" s="7">
+        <v>1942510</v>
+      </c>
+      <c r="V11" s="7">
+        <v>1911410</v>
+      </c>
+      <c r="W11" s="7">
+        <v>1886020</v>
+      </c>
+      <c r="X11" s="7">
+        <v>1857640</v>
+      </c>
+      <c r="Y11" s="7">
+        <v>1831480</v>
+      </c>
+      <c r="Z11" s="7">
+        <v>1807510</v>
+      </c>
+      <c r="AA11" s="7">
+        <v>1784380</v>
+      </c>
+      <c r="AB11" s="7">
+        <v>1763150</v>
+      </c>
+      <c r="AC11" s="7">
+        <v>1740650</v>
+      </c>
+      <c r="AD11" s="7">
+        <v>1722380</v>
+      </c>
+      <c r="AE11" s="7">
+        <v>1704850</v>
+      </c>
+      <c r="AF11" s="7">
+        <v>1688010</v>
+      </c>
+      <c r="AG11" s="7">
+        <v>1672180</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
@@ -41571,11 +41574,11 @@
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="I13" s="83" t="s">
+      <c r="I13" s="84" t="s">
         <v>657</v>
       </c>
-      <c r="J13" s="83"/>
-      <c r="K13" s="83"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="73" t="s">
@@ -41587,35 +41590,35 @@
       </c>
       <c r="D14" s="26">
         <f>D12*D11</f>
-        <v>794898.72</v>
+        <v>631937.97</v>
       </c>
       <c r="E14" s="26">
         <f t="shared" si="3"/>
-        <v>751452.57</v>
+        <v>611709.32999999996</v>
       </c>
       <c r="F14" s="26">
         <f t="shared" si="3"/>
-        <v>709753.11</v>
+        <v>593203.26</v>
       </c>
       <c r="G14" s="26">
         <f t="shared" si="3"/>
-        <v>654962.5199999999</v>
+        <v>569159.6399999999</v>
       </c>
       <c r="H14" s="26">
         <f t="shared" si="3"/>
-        <v>617942.34</v>
+        <v>548454.63</v>
       </c>
       <c r="I14" s="26">
         <f t="shared" si="3"/>
-        <v>594676.59</v>
+        <v>525930.56999999995</v>
       </c>
       <c r="J14" s="26">
         <f t="shared" si="3"/>
-        <v>573509.27999999991</v>
+        <v>508138.05</v>
       </c>
       <c r="K14" s="26">
         <f t="shared" si="3"/>
-        <v>554056.5</v>
+        <v>492769.58999999997</v>
       </c>
       <c r="L14" s="73">
         <v>0</v>
@@ -42054,14 +42057,14 @@
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C20" s="74"/>
-      <c r="D20" s="82" t="s">
+      <c r="D20" s="83" t="s">
         <v>656</v>
       </c>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="73" t="s">
